--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA630046-E606-44AA-82A8-29C872ACE868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7E4804-999B-42F6-8F26-9A26F4F71F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -44,14 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5001,5002,5003,5004,5005,5006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5001,5002,5003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Percent01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -80,7 +72,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5004,5005,5006</t>
+    <t>50001,50002,50003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50004,50005,50006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50001,50002,50003,50004,50005,50006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60001,60002,60003,60004,60005,60006</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,8 +160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:I5" totalsRowShown="0">
-  <autoFilter ref="A1:I5" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:I6" totalsRowShown="0">
+  <autoFilter ref="A1:I6" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="0"/>
@@ -470,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -491,25 +495,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -517,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -528,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -539,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -550,22 +554,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7E4804-999B-42F6-8F26-9A26F4F71F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D249F117-5091-4D29-B93D-8DA791B23F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="設定" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -85,6 +86,69 @@
   </si>
   <si>
     <t>60001,60002,60003,60004,60005,60006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーナスリスト設定ファイル</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BonusList01～04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Percent01～04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのボーナスが入ってるかの設定（Bonus設定ファイルのID、複数可能　例えば、100,101,102)</t>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応するパーセント（全部で100なら必ずもらう、100以内なら運によってもらう）</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -92,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +172,60 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -131,11 +234,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -591,4 +700,59 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF8C65-56D5-4E69-BB70-92DF5261A41D}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D249F117-5091-4D29-B93D-8DA791B23F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1DA08E-58B2-4910-862B-FFBC8A12E4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-30" yWindow="1590" windowWidth="24525" windowHeight="12975" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="設定" sheetId="2" r:id="rId2"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -269,8 +269,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:I6" totalsRowShown="0">
-  <autoFilter ref="A1:I6" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="0"/>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -690,6 +690,29 @@
       </c>
       <c r="C6">
         <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF8C65-56D5-4E69-BB70-92DF5261A41D}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1DA08E-58B2-4910-862B-FFBC8A12E4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CC1C2A-061A-4861-9AF0-F2ECC5A19A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="1590" windowWidth="24525" windowHeight="12975" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="1605" yWindow="3000" windowWidth="24525" windowHeight="12975" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,10 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -633,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -644,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -655,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -666,19 +669,19 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -697,22 +700,22 @@
         <v>1000</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CC1C2A-061A-4861-9AF0-F2ECC5A19A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237AE822-3970-4DED-AC6F-2DAC408AAF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="3000" windowWidth="24525" windowHeight="12975" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="2730" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237AE822-3970-4DED-AC6F-2DAC408AAF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF91B779-1FA5-458B-ABBB-E49C9E11D267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対応するパーセント（全部で100なら必ずもらう、100以内なら運によってもらう）</t>
+    <t>対応するパーセント（全部で100なら必ずもらう、100未満なら運によってもらう）</t>
     <rPh sb="0" eb="2">
       <t>タイオウ</t>
     </rPh>
@@ -142,9 +142,6 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>カナラ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イナイ</t>
     </rPh>
     <rPh sb="31" eb="32">
       <t>ウン</t>
@@ -585,11 +582,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -732,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF8C65-56D5-4E69-BB70-92DF5261A41D}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF91B779-1FA5-458B-ABBB-E49C9E11D267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860729CA-39B4-494E-A7CA-B97B79202751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -96,14 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BonusList01～04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Percent01～04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>唯一のID</t>
     <rPh sb="0" eb="2">
       <t>ユイイツ</t>
@@ -146,6 +138,101 @@
     <rPh sb="31" eb="32">
       <t>ウン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BonusList05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Percent05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BonusList06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Percent06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BonusList07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Percent07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BonusList01～07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Percent01～07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level01~07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レアレベル（★数）</t>
+    <rPh sb="7" eb="8">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70003,70002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60001,60002,60003,60004,60005,60006,60007,60008,60009,60010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50003,50006,50009,50012,50015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50002,50005,50008,50011,50014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50001,50004,50007,50010,50013</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -231,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,11 +331,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -266,18 +368,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:I7" totalsRowShown="0">
-  <autoFilter ref="A1:I7" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V7" totalsRowShown="0">
+  <autoFilter ref="A1:V7" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{1B988E9B-68FA-4E0A-93E8-0069A9E53A0E}" name="Percent01"/>
+    <tableColumn id="10" xr3:uid="{77F00BED-575D-4CDB-83F4-254281BC57B0}" name="Level01"/>
     <tableColumn id="4" xr3:uid="{DDFADF56-831E-44A0-8235-C6A729246BC1}" name="BonusList02"/>
     <tableColumn id="5" xr3:uid="{26EEFCD8-1CAF-451E-89A1-6CA5AD4850A2}" name="Percent02"/>
+    <tableColumn id="11" xr3:uid="{264C93AD-BD1D-4866-9B0F-C8159CDF5DBC}" name="Level02"/>
     <tableColumn id="6" xr3:uid="{7D5D7760-D8FA-40AF-9761-7FDDCA13E2A7}" name="BonusList03"/>
     <tableColumn id="7" xr3:uid="{19940615-FA95-4799-9702-794F64775DFE}" name="Percent03"/>
-    <tableColumn id="8" xr3:uid="{BC798231-E0A5-4F2F-80FD-DF5A3FAACF63}" name="BonusList04"/>
+    <tableColumn id="12" xr3:uid="{9147559A-0CF5-4BAE-8638-00CB42CD1688}" name="Level03"/>
+    <tableColumn id="8" xr3:uid="{BC798231-E0A5-4F2F-80FD-DF5A3FAACF63}" name="BonusList04" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{92EB61CF-FFA5-4631-8D85-61B286E5A546}" name="Percent04"/>
+    <tableColumn id="13" xr3:uid="{0D8C7250-687D-459A-89EC-156E0A471FC8}" name="Level04"/>
+    <tableColumn id="14" xr3:uid="{7F915FC6-5ADC-4536-ACF6-A93C97B5A48A}" name="BonusList05" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{33BCFBF7-4BE6-4A55-A735-087E78D3BD98}" name="Percent05"/>
+    <tableColumn id="16" xr3:uid="{E94DDBCB-4897-4D8B-AC7E-B24C03B68747}" name="Level05"/>
+    <tableColumn id="17" xr3:uid="{DADE43A6-CE96-4476-BED9-DB2E9A348C18}" name="BonusList06" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{CB9CD514-9322-4340-B2DC-32D9522DA48C}" name="Percent06"/>
+    <tableColumn id="19" xr3:uid="{FC7A2FB8-1DA7-4631-87A4-D07CB1766CD0}" name="Level06"/>
+    <tableColumn id="20" xr3:uid="{E48E3D14-DA59-4316-814B-C3D02932FA4D}" name="BonusList07" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{62E436DA-C710-4DFE-A603-7AB37262C280}" name="Percent07"/>
+    <tableColumn id="22" xr3:uid="{FD408134-F288-4981-B152-165E4178633C}" name="Level07"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -580,23 +695,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="35.875" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.375" customWidth="1"/>
+    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="32.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,25 +725,64 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -635,8 +792,12 @@
       <c r="C2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -646,8 +807,12 @@
       <c r="C3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -657,8 +822,12 @@
       <c r="C4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -668,20 +837,24 @@
       <c r="C5">
         <v>450</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>450</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -691,29 +864,73 @@
       <c r="C6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1000</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>300</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>480</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>350</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7">
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7">
+        <v>50</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7">
+        <v>25</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="N8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -727,10 +944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF8C65-56D5-4E69-BB70-92DF5261A41D}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -750,27 +967,37 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860729CA-39B4-494E-A7CA-B97B79202751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505455C2-6101-47D9-A6BA-540C4B39D321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>50001,50004,50007,50010,50013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -368,8 +372,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V7" totalsRowShown="0">
-  <autoFilter ref="A1:V7" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V8" totalsRowShown="0">
+  <autoFilter ref="A1:V8" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="4"/>
@@ -701,7 +705,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -711,7 +715,9 @@
     <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
@@ -930,7 +936,31 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1001</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>800</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1"/>
       <c r="N8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505455C2-6101-47D9-A6BA-540C4B39D321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9456AD5D-6D9D-4CDF-B70C-398948F7BB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-26595" yWindow="3015" windowWidth="18495" windowHeight="10515" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -236,7 +227,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>60001</t>
+    <t>80001,80004,80007,80010,80013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80002,80005,80008,80011,80014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80003,80006,80009,80012,80015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80016,80017,80018,80019,80020,80021,80022,80023,80024,80025</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>81011,81012,81013,81014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>81010,81015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>81006,81009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>81003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>81005,81008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>81002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>81001,81004,81007</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -372,8 +403,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V8" totalsRowShown="0">
-  <autoFilter ref="A1:V8" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V9" totalsRowShown="0">
+  <autoFilter ref="A1:V9" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="4"/>
@@ -699,28 +730,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.3984375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" customWidth="1"/>
+    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -803,7 +834,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -818,7 +849,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -833,7 +864,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -860,7 +891,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -875,7 +906,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -935,32 +966,133 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1001</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>480</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8">
-        <v>800</v>
-      </c>
-      <c r="D8">
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8">
+        <v>350</v>
+      </c>
+      <c r="J8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8">
+        <v>75</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="R8">
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
       <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1002</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>520</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>280</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>90</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9">
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9">
+        <v>40</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9">
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9">
+        <v>30</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -980,52 +1112,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9456AD5D-6D9D-4CDF-B70C-398948F7BB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAAB9C1-070F-4F86-9DE2-1BF7E5134EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26595" yWindow="3015" windowWidth="18495" windowHeight="10515" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -268,6 +268,14 @@
   </si>
   <si>
     <t>81001,81004,81007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90000,90001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90002,90003</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -403,8 +411,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V9" totalsRowShown="0">
-  <autoFilter ref="A1:V9" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V11" totalsRowShown="0">
+  <autoFilter ref="A1:V11" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="4"/>
@@ -730,28 +738,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" customWidth="1"/>
-    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -834,7 +842,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -849,7 +857,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -864,7 +872,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -891,7 +899,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -906,7 +914,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -966,7 +974,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1026,7 +1034,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1093,6 +1101,36 @@
       <c r="V9">
         <v>3</v>
       </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>11000</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>11001</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1112,52 +1150,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\WORKS\ver2.0.0\01_ガチャ機能改修\設定ファイル\02_修正後\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9456AD5D-6D9D-4CDF-B70C-398948F7BB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D99C28E-89B3-4868-87D5-8EC5C44B3583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26595" yWindow="3015" windowWidth="18495" windowHeight="10515" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -275,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +297,22 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -353,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +383,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,8 +428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V9" totalsRowShown="0">
-  <autoFilter ref="A1:V9" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V13" totalsRowShown="0">
+  <autoFilter ref="A1:V13" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="4"/>
@@ -730,28 +755,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" customWidth="1"/>
-    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -834,7 +859,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -849,7 +874,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -864,7 +889,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -891,7 +916,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -906,7 +931,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -966,7 +991,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1026,7 +1051,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1091,6 +1116,262 @@
         <v>30</v>
       </c>
       <c r="V9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5">
+        <v>480</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="5">
+        <v>350</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="5">
+        <v>75</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="5">
+        <v>50</v>
+      </c>
+      <c r="P10" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="5">
+        <v>25</v>
+      </c>
+      <c r="S10" s="5">
+        <v>3</v>
+      </c>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5">
+        <v>480</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="5">
+        <v>350</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="5">
+        <v>75</v>
+      </c>
+      <c r="M11" s="5">
+        <v>3</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="5">
+        <v>50</v>
+      </c>
+      <c r="P11" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="5">
+        <v>25</v>
+      </c>
+      <c r="S11" s="5">
+        <v>3</v>
+      </c>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5">
+        <v>520</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="5">
+        <v>280</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="5">
+        <v>90</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="5">
+        <v>25</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="5">
+        <v>40</v>
+      </c>
+      <c r="P12" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="5">
+        <v>15</v>
+      </c>
+      <c r="S12" s="5">
+        <v>3</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="5">
+        <v>30</v>
+      </c>
+      <c r="V12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5">
+        <v>520</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="5">
+        <v>280</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="5">
+        <v>90</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="5">
+        <v>25</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="5">
+        <v>40</v>
+      </c>
+      <c r="P13" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="5">
+        <v>15</v>
+      </c>
+      <c r="S13" s="5">
+        <v>3</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="5">
+        <v>30</v>
+      </c>
+      <c r="V13" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1112,52 +1393,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\WORKS\ver2.0.0\01_ガチャ機能改修\設定ファイル\02_修正後\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D99C28E-89B3-4868-87D5-8EC5C44B3583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D62B9-F9D5-4D08-BF09-915916D6C680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -268,6 +268,25 @@
   </si>
   <si>
     <t>81001,81004,81007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>106,107,108</t>
+  </si>
+  <si>
+    <t>106,107,108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100,101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>102,103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,105</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -398,7 +417,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -428,29 +450,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V13" totalsRowShown="0">
-  <autoFilter ref="A1:V13" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V16" totalsRowShown="0">
+  <autoFilter ref="A1:V16" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{1B988E9B-68FA-4E0A-93E8-0069A9E53A0E}" name="Percent01"/>
     <tableColumn id="10" xr3:uid="{77F00BED-575D-4CDB-83F4-254281BC57B0}" name="Level01"/>
-    <tableColumn id="4" xr3:uid="{DDFADF56-831E-44A0-8235-C6A729246BC1}" name="BonusList02"/>
+    <tableColumn id="4" xr3:uid="{DDFADF56-831E-44A0-8235-C6A729246BC1}" name="BonusList02" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{26EEFCD8-1CAF-451E-89A1-6CA5AD4850A2}" name="Percent02"/>
     <tableColumn id="11" xr3:uid="{264C93AD-BD1D-4866-9B0F-C8159CDF5DBC}" name="Level02"/>
     <tableColumn id="6" xr3:uid="{7D5D7760-D8FA-40AF-9761-7FDDCA13E2A7}" name="BonusList03"/>
     <tableColumn id="7" xr3:uid="{19940615-FA95-4799-9702-794F64775DFE}" name="Percent03"/>
     <tableColumn id="12" xr3:uid="{9147559A-0CF5-4BAE-8638-00CB42CD1688}" name="Level03"/>
-    <tableColumn id="8" xr3:uid="{BC798231-E0A5-4F2F-80FD-DF5A3FAACF63}" name="BonusList04" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BC798231-E0A5-4F2F-80FD-DF5A3FAACF63}" name="BonusList04" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{92EB61CF-FFA5-4631-8D85-61B286E5A546}" name="Percent04"/>
     <tableColumn id="13" xr3:uid="{0D8C7250-687D-459A-89EC-156E0A471FC8}" name="Level04"/>
-    <tableColumn id="14" xr3:uid="{7F915FC6-5ADC-4536-ACF6-A93C97B5A48A}" name="BonusList05" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{7F915FC6-5ADC-4536-ACF6-A93C97B5A48A}" name="BonusList05" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{33BCFBF7-4BE6-4A55-A735-087E78D3BD98}" name="Percent05"/>
     <tableColumn id="16" xr3:uid="{E94DDBCB-4897-4D8B-AC7E-B24C03B68747}" name="Level05"/>
-    <tableColumn id="17" xr3:uid="{DADE43A6-CE96-4476-BED9-DB2E9A348C18}" name="BonusList06" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{DADE43A6-CE96-4476-BED9-DB2E9A348C18}" name="BonusList06" dataDxfId="2"/>
     <tableColumn id="18" xr3:uid="{CB9CD514-9322-4340-B2DC-32D9522DA48C}" name="Percent06"/>
     <tableColumn id="19" xr3:uid="{FC7A2FB8-1DA7-4631-87A4-D07CB1766CD0}" name="Level06"/>
-    <tableColumn id="20" xr3:uid="{E48E3D14-DA59-4316-814B-C3D02932FA4D}" name="BonusList07" dataDxfId="0"/>
+    <tableColumn id="20" xr3:uid="{E48E3D14-DA59-4316-814B-C3D02932FA4D}" name="BonusList07" dataDxfId="1"/>
     <tableColumn id="21" xr3:uid="{62E436DA-C710-4DFE-A603-7AB37262C280}" name="Percent07"/>
     <tableColumn id="22" xr3:uid="{FD408134-F288-4981-B152-165E4178633C}" name="Level07"/>
   </tableColumns>
@@ -755,20 +777,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.125" customWidth="1"/>
@@ -789,7 +811,7 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -1374,6 +1396,87 @@
       <c r="V13" s="5">
         <v>3</v>
       </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>10001</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>10002</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>10003</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>300</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="T16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D62B9-F9D5-4D08-BF09-915916D6C680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029A55C3-2F78-4262-A6B1-EF9401535857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -287,6 +287,37 @@
   </si>
   <si>
     <t>104,105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83001,83002,83003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83001,83002,83003</t>
+  </si>
+  <si>
+    <t>83301,83302,83303,83304,83305</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>81003,81006,81009,80003,80006,80009,80012,80015</t>
+  </si>
+  <si>
+    <t>83004,83006,83008,83005,83007,83009</t>
+  </si>
+  <si>
+    <t>81010,81011,81012,81013,81014,81015</t>
+  </si>
+  <si>
+    <t>83306,83307,83308,83309,83310,83311,83312,83313,83314,83315</t>
+  </si>
+  <si>
+    <t>83004,83007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83005,83006,83008,83009</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -336,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +378,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -388,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,6 +448,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,29 +490,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V16" totalsRowShown="0">
-  <autoFilter ref="A1:V16" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V14" totalsRowShown="0">
+  <autoFilter ref="A1:V14" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{1B988E9B-68FA-4E0A-93E8-0069A9E53A0E}" name="Percent01"/>
     <tableColumn id="10" xr3:uid="{77F00BED-575D-4CDB-83F4-254281BC57B0}" name="Level01"/>
-    <tableColumn id="4" xr3:uid="{DDFADF56-831E-44A0-8235-C6A729246BC1}" name="BonusList02" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{DDFADF56-831E-44A0-8235-C6A729246BC1}" name="BonusList02" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{26EEFCD8-1CAF-451E-89A1-6CA5AD4850A2}" name="Percent02"/>
     <tableColumn id="11" xr3:uid="{264C93AD-BD1D-4866-9B0F-C8159CDF5DBC}" name="Level02"/>
     <tableColumn id="6" xr3:uid="{7D5D7760-D8FA-40AF-9761-7FDDCA13E2A7}" name="BonusList03"/>
     <tableColumn id="7" xr3:uid="{19940615-FA95-4799-9702-794F64775DFE}" name="Percent03"/>
     <tableColumn id="12" xr3:uid="{9147559A-0CF5-4BAE-8638-00CB42CD1688}" name="Level03"/>
-    <tableColumn id="8" xr3:uid="{BC798231-E0A5-4F2F-80FD-DF5A3FAACF63}" name="BonusList04" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{BC798231-E0A5-4F2F-80FD-DF5A3FAACF63}" name="BonusList04" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{92EB61CF-FFA5-4631-8D85-61B286E5A546}" name="Percent04"/>
     <tableColumn id="13" xr3:uid="{0D8C7250-687D-459A-89EC-156E0A471FC8}" name="Level04"/>
-    <tableColumn id="14" xr3:uid="{7F915FC6-5ADC-4536-ACF6-A93C97B5A48A}" name="BonusList05" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{7F915FC6-5ADC-4536-ACF6-A93C97B5A48A}" name="BonusList05" dataDxfId="2"/>
     <tableColumn id="15" xr3:uid="{33BCFBF7-4BE6-4A55-A735-087E78D3BD98}" name="Percent05"/>
     <tableColumn id="16" xr3:uid="{E94DDBCB-4897-4D8B-AC7E-B24C03B68747}" name="Level05"/>
-    <tableColumn id="17" xr3:uid="{DADE43A6-CE96-4476-BED9-DB2E9A348C18}" name="BonusList06" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{DADE43A6-CE96-4476-BED9-DB2E9A348C18}" name="BonusList06" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{CB9CD514-9322-4340-B2DC-32D9522DA48C}" name="Percent06"/>
     <tableColumn id="19" xr3:uid="{FC7A2FB8-1DA7-4631-87A4-D07CB1766CD0}" name="Level06"/>
-    <tableColumn id="20" xr3:uid="{E48E3D14-DA59-4316-814B-C3D02932FA4D}" name="BonusList07" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{E48E3D14-DA59-4316-814B-C3D02932FA4D}" name="BonusList07" dataDxfId="0"/>
     <tableColumn id="21" xr3:uid="{62E436DA-C710-4DFE-A603-7AB37262C280}" name="Percent07"/>
     <tableColumn id="22" xr3:uid="{FD408134-F288-4981-B152-165E4178633C}" name="Level07"/>
   </tableColumns>
@@ -777,13 +817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1142,267 +1182,161 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>1003</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C10" s="5">
-        <v>480</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F10" s="5">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I10" s="5">
-        <v>350</v>
+        <v>640</v>
       </c>
       <c r="J10" s="7">
         <v>2</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="5">
-        <v>75</v>
-      </c>
-      <c r="M10" s="5">
-        <v>3</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="5">
-        <v>50</v>
-      </c>
-      <c r="P10" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="K10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="5">
         <v>25</v>
       </c>
-      <c r="S10" s="5">
-        <v>3</v>
-      </c>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
-        <v>1004</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5">
-        <v>480</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5">
-        <v>20</v>
-      </c>
       <c r="G11" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I11" s="5">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="5">
+        <v>60</v>
+      </c>
+      <c r="M11" s="5">
         <v>2</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="5">
-        <v>75</v>
-      </c>
-      <c r="M11" s="5">
-        <v>3</v>
-      </c>
       <c r="N11" s="6" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="O11" s="5">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="P11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="R11" s="5">
-        <v>25</v>
+        <v>550</v>
       </c>
       <c r="S11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
-        <v>1005</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5">
-        <v>520</v>
-      </c>
-      <c r="D12" s="5">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10001</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="5">
-        <v>280</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10002</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="5">
-        <v>90</v>
-      </c>
-      <c r="J12" s="5">
-        <v>3</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="5">
-        <v>25</v>
-      </c>
-      <c r="M12" s="5">
-        <v>3</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="5">
-        <v>40</v>
-      </c>
-      <c r="P12" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" s="5">
-        <v>15</v>
-      </c>
-      <c r="S12" s="5">
-        <v>3</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="5">
-        <v>30</v>
-      </c>
-      <c r="V12" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
-        <v>1006</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="5">
-        <v>520</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="5">
-        <v>280</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="5">
-        <v>90</v>
-      </c>
-      <c r="J13" s="5">
-        <v>3</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="5">
-        <v>25</v>
-      </c>
-      <c r="M13" s="5">
-        <v>3</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="5">
-        <v>40</v>
-      </c>
-      <c r="P13" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13" s="5">
-        <v>15</v>
-      </c>
-      <c r="S13" s="5">
-        <v>3</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="5">
-        <v>30</v>
-      </c>
-      <c r="V13" s="5">
-        <v>3</v>
-      </c>
+      <c r="E13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>300</v>
@@ -1411,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <v>200</v>
@@ -1423,60 +1357,6 @@
       <c r="N14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>10002</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15">
-        <v>300</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15">
-        <v>200</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>10003</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16">
-        <v>300</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16">
-        <v>200</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="T16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029A55C3-2F78-4262-A6B1-EF9401535857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546AB493-C259-4EEE-9B01-5ABC5888DB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="5070" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V14" totalsRowShown="0">
-  <autoFilter ref="A1:V14" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V23" totalsRowShown="0">
+  <autoFilter ref="A1:V23" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -817,13 +817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1357,6 +1357,96 @@
       <c r="N14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>10004</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>10005</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>10006</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>10007</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>10008</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>10009</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>10010</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>10011</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>10012</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="T23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546AB493-C259-4EEE-9B01-5ABC5888DB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505186D9-23FC-43C3-8620-300ED4BFDA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -318,6 +318,14 @@
   </si>
   <si>
     <t>83005,83006,83008,83009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109,110</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>111</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -490,8 +498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V23" totalsRowShown="0">
-  <autoFilter ref="A1:V23" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V25" totalsRowShown="0">
+  <autoFilter ref="A1:V25" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -817,13 +825,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1447,6 +1455,42 @@
       <c r="N23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>10013</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>500</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>10014</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="T25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505186D9-23FC-43C3-8620-300ED4BFDA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE64F88-949C-4F69-91C1-68D7BE83AE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -271,25 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>106,107,108</t>
-  </si>
-  <si>
-    <t>106,107,108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>100,101</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>102,103</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>104,105</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>83001,83002,83003</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -326,6 +307,14 @@
   </si>
   <si>
     <t>111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108,111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -828,25 +817,25 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.3984375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" customWidth="1"/>
+    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -929,7 +918,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -944,7 +933,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -959,7 +948,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -986,7 +975,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1001,7 +990,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -1061,7 +1050,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1121,7 +1110,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1189,12 +1178,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>1003</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5">
         <v>60</v>
@@ -1203,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F10" s="5">
         <v>300</v>
@@ -1212,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I10" s="5">
         <v>640</v>
@@ -1225,12 +1214,12 @@
       <c r="Q10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>1004</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5">
         <v>3</v>
@@ -1239,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F11" s="5">
         <v>25</v>
@@ -1248,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I11" s="5">
         <v>32</v>
@@ -1257,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L11" s="5">
         <v>60</v>
@@ -1266,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O11" s="5">
         <v>330</v>
@@ -1275,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="R11" s="5">
         <v>550</v>
@@ -1285,88 +1274,88 @@
       </c>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10001</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C12">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12">
         <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12">
-        <v>200</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
       </c>
       <c r="K12" s="1"/>
       <c r="N12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10002</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13">
         <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13">
-        <v>200</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
       </c>
       <c r="K13" s="1"/>
       <c r="N13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10003</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
         <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14">
-        <v>200</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
       </c>
       <c r="K14" s="1"/>
       <c r="N14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -1376,7 +1365,7 @@
       <c r="Q15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -1386,7 +1375,7 @@
       <c r="Q16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10006</v>
       </c>
@@ -1396,7 +1385,7 @@
       <c r="Q17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10007</v>
       </c>
@@ -1406,7 +1395,7 @@
       <c r="Q18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10008</v>
       </c>
@@ -1416,7 +1405,7 @@
       <c r="Q19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10009</v>
       </c>
@@ -1426,7 +1415,7 @@
       <c r="Q20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10010</v>
       </c>
@@ -1436,7 +1425,7 @@
       <c r="Q21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>10011</v>
       </c>
@@ -1446,7 +1435,7 @@
       <c r="Q22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10012</v>
       </c>
@@ -1456,12 +1445,12 @@
       <c r="Q23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10013</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>500</v>
@@ -1474,12 +1463,12 @@
       <c r="Q24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10014</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>1000</v>
@@ -1510,52 +1499,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE64F88-949C-4F69-91C1-68D7BE83AE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A63ED05-6A8F-4EBA-9252-E2FF7509A752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="4200" yWindow="2124" windowWidth="17292" windowHeight="8964" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -310,11 +310,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>108,111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>107</t>
+    <t>108,111,107</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>106,109</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100,101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>102,103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,105</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -817,10 +829,10 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1282,19 +1294,10 @@
         <v>62</v>
       </c>
       <c r="C12">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D12">
         <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12">
-        <v>500</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
       </c>
       <c r="K12" s="1"/>
       <c r="N12" s="1"/>
@@ -1309,19 +1312,10 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D13">
         <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13">
-        <v>500</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
       </c>
       <c r="K13" s="1"/>
       <c r="N13" s="1"/>
@@ -1336,19 +1330,10 @@
         <v>62</v>
       </c>
       <c r="C14">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D14">
         <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14">
-        <v>500</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
       </c>
       <c r="K14" s="1"/>
       <c r="N14" s="1"/>
@@ -1359,7 +1344,15 @@
       <c r="A15">
         <v>10004</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="N15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1369,7 +1362,15 @@
       <c r="A16">
         <v>10005</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="N16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1379,7 +1380,15 @@
       <c r="A17">
         <v>10006</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="N17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1389,7 +1398,15 @@
       <c r="A18">
         <v>10007</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="N18" s="1"/>
       <c r="Q18" s="1"/>
@@ -1399,7 +1416,15 @@
       <c r="A19">
         <v>10008</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="N19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1409,7 +1434,15 @@
       <c r="A20">
         <v>10009</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="N20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1419,7 +1452,15 @@
       <c r="A21">
         <v>10010</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="N21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1429,7 +1470,15 @@
       <c r="A22">
         <v>10011</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="N22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1439,7 +1488,15 @@
       <c r="A23">
         <v>10012</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="N23" s="1"/>
       <c r="Q23" s="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A63ED05-6A8F-4EBA-9252-E2FF7509A752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95FE267-4F4D-470F-9911-A0788D3F86DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2124" windowWidth="17292" windowHeight="8964" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -829,25 +836,25 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" customWidth="1"/>
-    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -930,7 +937,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -945,7 +952,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -960,7 +967,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -987,7 +994,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1002,7 +1009,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -1062,7 +1069,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1122,7 +1129,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1190,103 +1197,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>1003</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5">
+        <v>300</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="5">
+        <v>640</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5">
+      <c r="I10" s="5">
         <v>60</v>
       </c>
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="5">
-        <v>300</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="5">
-        <v>640</v>
-      </c>
-      <c r="J10" s="7">
-        <v>2</v>
+      <c r="J10" s="5">
+        <v>3</v>
       </c>
       <c r="K10" s="6"/>
       <c r="N10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>1004</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="5">
+        <v>330</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="5">
+        <v>550</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="5">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="L11" s="5">
+        <v>3</v>
+      </c>
+      <c r="M11" s="5">
+        <v>3</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="5">
+      <c r="O11" s="5">
         <v>25</v>
       </c>
-      <c r="G11" s="5">
-        <v>3</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="P11" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="5">
+      <c r="R11" s="5">
         <v>32</v>
       </c>
-      <c r="J11" s="7">
-        <v>3</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="5">
-        <v>60</v>
-      </c>
-      <c r="M11" s="5">
-        <v>2</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" s="5">
-        <v>330</v>
-      </c>
-      <c r="P11" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="5">
-        <v>550</v>
-      </c>
-      <c r="S11" s="5">
-        <v>2</v>
+      <c r="S11" s="7">
+        <v>3</v>
       </c>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -1304,7 +1311,7 @@
       <c r="Q12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -1322,7 +1329,7 @@
       <c r="Q13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -1335,12 +1342,9 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -1358,7 +1362,7 @@
       <c r="Q15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -1376,7 +1380,7 @@
       <c r="Q16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10006</v>
       </c>
@@ -1394,7 +1398,7 @@
       <c r="Q17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10007</v>
       </c>
@@ -1412,7 +1416,7 @@
       <c r="Q18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10008</v>
       </c>
@@ -1430,7 +1434,7 @@
       <c r="Q19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10009</v>
       </c>
@@ -1448,7 +1452,7 @@
       <c r="Q20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>10010</v>
       </c>
@@ -1466,7 +1470,7 @@
       <c r="Q21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>10011</v>
       </c>
@@ -1484,7 +1488,7 @@
       <c r="Q22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>10012</v>
       </c>
@@ -1502,7 +1506,7 @@
       <c r="Q23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>10013</v>
       </c>
@@ -1520,7 +1524,7 @@
       <c r="Q24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>10014</v>
       </c>
@@ -1556,52 +1560,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95FE267-4F4D-470F-9911-A0788D3F86DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7930BA-5737-46D6-B19D-ED9A50ECA6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -334,6 +334,10 @@
   </si>
   <si>
     <t>104,105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10006</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -506,8 +510,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V25" totalsRowShown="0">
-  <autoFilter ref="A1:V25" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V26" totalsRowShown="0">
+  <autoFilter ref="A1:V26" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -833,13 +837,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1541,6 +1545,24 @@
       <c r="N25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>20000</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="T26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7930BA-5737-46D6-B19D-ED9A50ECA6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E8217D-3098-4C32-BE7F-24CDD7153F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView minimized="1" xWindow="5745" yWindow="3285" windowWidth="21690" windowHeight="12525" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,12 +843,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.375" customWidth="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E8217D-3098-4C32-BE7F-24CDD7153F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F48899B-31E7-4A43-86A0-3DBC2722C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5745" yWindow="3285" windowWidth="21690" windowHeight="12525" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="5388" yWindow="2988" windowWidth="17280" windowHeight="8964" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -338,6 +338,22 @@
   </si>
   <si>
     <t>10006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22002,22003,22004,22005,22006,22007,22008,22009,22010,22011,22012,22013,22014,22015,22016,22017,22018,22019,22020,22021,22022,22023,22024,22025,22026,22027,22028,22029,22030,22031,22032,22033,22034,22035,22036,22037,22038,22039,22040,22041,22042,22043,22044,22045,22046,22047,22048,22049,22050,22051,22052,22053,22054,22055,22056,22057</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22100,22101,22102,22103,22104</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22200,22201,22202,22203,22204</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -510,8 +526,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V26" totalsRowShown="0">
-  <autoFilter ref="A1:V26" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V29" totalsRowShown="0">
+  <autoFilter ref="A1:V29" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -837,28 +853,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="38.69921875" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.3984375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" customWidth="1"/>
+    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -926,7 +942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -941,7 +957,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -956,7 +972,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -971,7 +987,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -998,7 +1014,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1013,7 +1029,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -1073,7 +1089,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1133,7 +1149,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1201,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>1003</v>
       </c>
@@ -1237,7 +1253,7 @@
       <c r="Q10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>1004</v>
       </c>
@@ -1297,7 +1313,7 @@
       </c>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -1315,7 +1331,7 @@
       <c r="Q12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -1333,7 +1349,7 @@
       <c r="Q13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -1348,7 +1364,7 @@
       </c>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -1366,7 +1382,7 @@
       <c r="Q15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -1384,7 +1400,7 @@
       <c r="Q16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10006</v>
       </c>
@@ -1402,7 +1418,7 @@
       <c r="Q17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10007</v>
       </c>
@@ -1420,7 +1436,7 @@
       <c r="Q18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10008</v>
       </c>
@@ -1438,7 +1454,7 @@
       <c r="Q19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10009</v>
       </c>
@@ -1456,7 +1472,7 @@
       <c r="Q20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10010</v>
       </c>
@@ -1474,7 +1490,7 @@
       <c r="Q21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>10011</v>
       </c>
@@ -1492,7 +1508,7 @@
       <c r="Q22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10012</v>
       </c>
@@ -1510,7 +1526,7 @@
       <c r="Q23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10013</v>
       </c>
@@ -1528,7 +1544,7 @@
       <c r="Q24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10014</v>
       </c>
@@ -1546,7 +1562,7 @@
       <c r="Q25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>20000</v>
       </c>
@@ -1563,6 +1579,87 @@
       <c r="N26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>22000</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27">
+        <v>500</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>22100</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28">
+        <v>500</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>22200</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <v>500</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="T29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1582,52 +1679,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F48899B-31E7-4A43-86A0-3DBC2722C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9707D099-7A73-4597-A714-4BFBD2B06823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5388" yWindow="2988" windowWidth="17280" windowHeight="8964" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -279,26 +279,6 @@
   </si>
   <si>
     <t>83001,83002,83003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>83001,83002,83003</t>
-  </si>
-  <si>
-    <t>83301,83302,83303,83304,83305</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>81003,81006,81009,80003,80006,80009,80012,80015</t>
-  </si>
-  <si>
-    <t>83004,83006,83008,83005,83007,83009</t>
-  </si>
-  <si>
-    <t>81010,81011,81012,81013,81014,81015</t>
-  </si>
-  <si>
-    <t>83306,83307,83308,83309,83310,83311,83312,83313,83314,83315</t>
   </si>
   <si>
     <t>83004,83007</t>
@@ -355,13 +335,60 @@
   <si>
     <t>22200,22201,22202,22203,22204</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83010,83011,83012,83013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83014,83015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83001</t>
+  </si>
+  <si>
+    <t>83002,83003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83016,83017,83018,83019,83020,83021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83005,83008,83017,83020</t>
+  </si>
+  <si>
+    <t>83004,83007,83016,83019</t>
+  </si>
+  <si>
+    <t>83006,83009,83018,83021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83002,83011,83014</t>
+  </si>
+  <si>
+    <t>83001,83003,83010,83012,83013,83015</t>
+  </si>
+  <si>
+    <t>22048,22049,22050,22051,22052,22053,22054,22055,22056,22057,81010,81011,81012,81013,81014,81015</t>
+  </si>
+  <si>
+    <t>83004,83005,83006,83007,83008,83009,83016,83017,83018,83019,83020,83021</t>
+  </si>
+  <si>
+    <t>80003,80006,80009,80012,80015,81003,81006,81009,83301,83302,83303,83304,83305</t>
+  </si>
+  <si>
+    <t>83010,83011,83012,83013,83014,83015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +424,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -461,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,13 +514,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,8 +569,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V29" totalsRowShown="0">
-  <autoFilter ref="A1:V29" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V30" totalsRowShown="0">
+  <autoFilter ref="A1:V30" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -853,28 +896,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="38.69921875" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" customWidth="1"/>
-    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -957,7 +1000,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -972,7 +1015,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -987,7 +1030,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1014,7 +1057,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1029,7 +1072,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -1089,7 +1132,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1149,7 +1192,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1217,126 +1260,192 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
         <v>1003</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="5">
-        <v>300</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6">
+        <v>600</v>
+      </c>
+      <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="5">
-        <v>640</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="E10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="6">
+        <v>240</v>
+      </c>
+      <c r="G10" s="9">
         <v>2</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="6">
+        <v>100</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="6">
+        <v>40</v>
+      </c>
+      <c r="M10" s="6">
+        <v>3</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="6">
+        <v>10</v>
+      </c>
+      <c r="P10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="6">
+        <v>4</v>
+      </c>
+      <c r="S10" s="6">
+        <v>3</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="6">
+        <v>6</v>
+      </c>
+      <c r="V10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="10">
+        <v>800</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="10">
+        <v>120</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="10">
+        <v>65</v>
+      </c>
+      <c r="J11" s="10">
+        <v>3</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="5">
+      <c r="L11" s="10">
+        <v>9</v>
+      </c>
+      <c r="M11" s="10">
+        <v>3</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="10">
+        <v>6</v>
+      </c>
+      <c r="P11" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
+        <v>1005</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="6">
+        <v>800</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="6">
+        <v>80</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="6">
         <v>60</v>
       </c>
-      <c r="J10" s="5">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="8">
-        <v>1004</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="5">
-        <v>60</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="J12" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="K12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="6">
+        <v>30</v>
+      </c>
+      <c r="M12" s="6">
+        <v>3</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="6">
+        <v>30</v>
+      </c>
+      <c r="P12" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10001</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F11" s="5">
-        <v>330</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="5">
-        <v>550</v>
-      </c>
-      <c r="J11" s="5">
-        <v>2</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="5">
-        <v>3</v>
-      </c>
-      <c r="M11" s="5">
-        <v>3</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="5">
-        <v>25</v>
-      </c>
-      <c r="P11" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R11" s="5">
-        <v>32</v>
-      </c>
-      <c r="S11" s="7">
-        <v>3</v>
-      </c>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>10001</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12">
-        <v>1000</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>10002</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C13">
         <v>1000</v>
@@ -1349,12 +1458,12 @@
       <c r="Q13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -1362,14 +1471,17 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="K14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>1000</v>
@@ -1377,17 +1489,14 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="Q15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>1000</v>
@@ -1400,12 +1509,12 @@
       <c r="Q16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>1000</v>
@@ -1418,12 +1527,12 @@
       <c r="Q17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>1000</v>
@@ -1436,12 +1545,12 @@
       <c r="Q18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -1454,12 +1563,12 @@
       <c r="Q19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>1000</v>
@@ -1472,12 +1581,12 @@
       <c r="Q20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>1000</v>
@@ -1490,12 +1599,12 @@
       <c r="Q21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>1000</v>
@@ -1508,12 +1617,12 @@
       <c r="Q22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>1000</v>
@@ -1526,48 +1635,48 @@
       <c r="Q23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C24">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1"/>
       <c r="N24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C25">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="1"/>
       <c r="N25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>20000</v>
+        <v>10014</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>1000</v>
@@ -1580,26 +1689,17 @@
       <c r="Q26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C27">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27">
-        <v>500</v>
-      </c>
-      <c r="G27">
         <v>1</v>
       </c>
       <c r="K27" s="1"/>
@@ -1607,12 +1707,12 @@
       <c r="Q27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>500</v>
@@ -1621,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F28">
         <v>500</v>
@@ -1634,12 +1734,12 @@
       <c r="Q28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>22200</v>
+        <v>22100</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <v>500</v>
@@ -1648,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F29">
         <v>500</v>
@@ -1660,6 +1760,33 @@
       <c r="N29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>22200</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30">
+        <v>500</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="T30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1679,52 +1806,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9707D099-7A73-4597-A714-4BFBD2B06823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D6379-F2E9-4363-8B17-4C8E50396282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="4356" yWindow="1188" windowWidth="16728" windowHeight="9672" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -382,6 +382,62 @@
   </si>
   <si>
     <t>83010,83011,83012,83013,83014,83015</t>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107,110,500,501</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100,101,119,500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>106,109,501</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>121</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>102,103,118,121</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>106,109,500,501</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104,105,120,500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -569,8 +625,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V30" totalsRowShown="0">
-  <autoFilter ref="A1:V30" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V57" totalsRowShown="0">
+  <autoFilter ref="A1:V57" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -896,28 +952,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="38.69921875" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.3984375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" customWidth="1"/>
+    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,7 +1041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1000,7 +1056,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1015,7 +1071,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1030,7 +1086,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1057,7 +1113,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1072,7 +1128,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -1132,7 +1188,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1192,7 +1248,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1260,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>1003</v>
       </c>
@@ -1328,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>1004</v>
       </c>
@@ -1384,7 +1440,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>1005</v>
       </c>
@@ -1440,7 +1496,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10001</v>
       </c>
@@ -1458,7 +1514,7 @@
       <c r="Q13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10002</v>
       </c>
@@ -1476,7 +1532,7 @@
       <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10003</v>
       </c>
@@ -1491,7 +1547,7 @@
       </c>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10004</v>
       </c>
@@ -1509,7 +1565,7 @@
       <c r="Q16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10005</v>
       </c>
@@ -1527,7 +1583,7 @@
       <c r="Q17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10006</v>
       </c>
@@ -1545,7 +1601,7 @@
       <c r="Q18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10007</v>
       </c>
@@ -1563,7 +1619,7 @@
       <c r="Q19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10008</v>
       </c>
@@ -1581,7 +1637,7 @@
       <c r="Q20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10009</v>
       </c>
@@ -1599,7 +1655,7 @@
       <c r="Q21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>10010</v>
       </c>
@@ -1617,7 +1673,7 @@
       <c r="Q22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10011</v>
       </c>
@@ -1635,7 +1691,7 @@
       <c r="Q23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10012</v>
       </c>
@@ -1653,7 +1709,7 @@
       <c r="Q24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10013</v>
       </c>
@@ -1671,7 +1727,7 @@
       <c r="Q25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>10014</v>
       </c>
@@ -1689,12 +1745,12 @@
       <c r="Q26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>20000</v>
+        <v>10015</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>1000</v>
@@ -1707,26 +1763,17 @@
       <c r="Q27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>22000</v>
+        <v>10016</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C28">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28">
-        <v>500</v>
-      </c>
-      <c r="G28">
         <v>1</v>
       </c>
       <c r="K28" s="1"/>
@@ -1734,26 +1781,17 @@
       <c r="Q28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>22100</v>
+        <v>10017</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C29">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29">
-        <v>500</v>
-      </c>
-      <c r="G29">
         <v>1</v>
       </c>
       <c r="K29" s="1"/>
@@ -1761,32 +1799,448 @@
       <c r="Q29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>22200</v>
+        <v>10018</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C30">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30">
-        <v>500</v>
-      </c>
-      <c r="G30">
         <v>1</v>
       </c>
       <c r="K30" s="1"/>
       <c r="N30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>10019</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>10020</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>10021</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>10022</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>10023</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>10024</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>10025</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>10026</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>10027</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>10028</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>10029</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>10030</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>10031</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>10032</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>10033</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>10034</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>10035</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>10036</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>10037</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>10038</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>10039</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>10040</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>10041</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>20000</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>1000</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>22000</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>500</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55">
+        <v>500</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>22100</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56">
+        <v>500</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56">
+        <v>500</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>22200</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57">
+        <v>500</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57">
+        <v>500</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="T57" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1806,52 +2260,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D6379-F2E9-4363-8B17-4C8E50396282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8A667E-E7B0-4076-91BF-D855BCB01967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="1188" windowWidth="16728" windowHeight="9672" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="2856" yWindow="1416" windowWidth="17280" windowHeight="8964" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -437,6 +437,10 @@
   </si>
   <si>
     <t>116</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>113</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -958,7 +962,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1966,7 +1970,7 @@
         <v>10027</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>1000</v>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8A667E-E7B0-4076-91BF-D855BCB01967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8F25B0-8B09-4DB6-85B1-9ECFC4D47358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="1416" windowWidth="17280" windowHeight="8964" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="3810" yWindow="1680" windowWidth="21690" windowHeight="12525" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -442,6 +442,48 @@
   <si>
     <t>113</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300031</t>
+  </si>
+  <si>
+    <t>300041</t>
+  </si>
+  <si>
+    <t>300051</t>
+  </si>
+  <si>
+    <t>300061</t>
+  </si>
+  <si>
+    <t>300071</t>
+  </si>
+  <si>
+    <t>300081</t>
+  </si>
+  <si>
+    <t>300091</t>
+  </si>
+  <si>
+    <t>300101</t>
+  </si>
+  <si>
+    <t>300111</t>
+  </si>
+  <si>
+    <t>300121</t>
   </si>
 </sst>
 </file>
@@ -629,8 +671,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V57" totalsRowShown="0">
-  <autoFilter ref="A1:V57" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V70" totalsRowShown="0">
+  <autoFilter ref="A1:V70" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -956,28 +998,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="38.69921875" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" customWidth="1"/>
-    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1060,7 +1102,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1075,7 +1117,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1090,7 +1132,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1117,7 +1159,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1132,7 +1174,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -1192,7 +1234,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1252,7 +1294,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1320,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>1003</v>
       </c>
@@ -1388,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>1004</v>
       </c>
@@ -1444,7 +1486,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>1005</v>
       </c>
@@ -1500,7 +1542,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10001</v>
       </c>
@@ -1518,7 +1560,7 @@
       <c r="Q13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10002</v>
       </c>
@@ -1536,7 +1578,7 @@
       <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10003</v>
       </c>
@@ -1551,7 +1593,7 @@
       </c>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10004</v>
       </c>
@@ -1569,7 +1611,7 @@
       <c r="Q16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10005</v>
       </c>
@@ -1587,7 +1629,7 @@
       <c r="Q17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10006</v>
       </c>
@@ -1605,7 +1647,7 @@
       <c r="Q18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10007</v>
       </c>
@@ -1623,7 +1665,7 @@
       <c r="Q19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10008</v>
       </c>
@@ -1641,7 +1683,7 @@
       <c r="Q20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>10009</v>
       </c>
@@ -1659,7 +1701,7 @@
       <c r="Q21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>10010</v>
       </c>
@@ -1677,7 +1719,7 @@
       <c r="Q22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>10011</v>
       </c>
@@ -1695,7 +1737,7 @@
       <c r="Q23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>10012</v>
       </c>
@@ -1713,7 +1755,7 @@
       <c r="Q24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>10013</v>
       </c>
@@ -1731,7 +1773,7 @@
       <c r="Q25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>10014</v>
       </c>
@@ -1749,7 +1791,7 @@
       <c r="Q26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>10015</v>
       </c>
@@ -1767,7 +1809,7 @@
       <c r="Q27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>10016</v>
       </c>
@@ -1785,7 +1827,7 @@
       <c r="Q28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>10017</v>
       </c>
@@ -1803,7 +1845,7 @@
       <c r="Q29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>10018</v>
       </c>
@@ -1821,7 +1863,7 @@
       <c r="Q30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>10019</v>
       </c>
@@ -1839,7 +1881,7 @@
       <c r="Q31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>10020</v>
       </c>
@@ -1857,7 +1899,7 @@
       <c r="Q32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>10021</v>
       </c>
@@ -1875,7 +1917,7 @@
       <c r="Q33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>10022</v>
       </c>
@@ -1893,7 +1935,7 @@
       <c r="Q34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>10023</v>
       </c>
@@ -1911,7 +1953,7 @@
       <c r="Q35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>10024</v>
       </c>
@@ -1929,7 +1971,7 @@
       <c r="Q36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>10025</v>
       </c>
@@ -1947,7 +1989,7 @@
       <c r="Q37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>10026</v>
       </c>
@@ -1965,7 +2007,7 @@
       <c r="Q38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>10027</v>
       </c>
@@ -1983,7 +2025,7 @@
       <c r="Q39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>10028</v>
       </c>
@@ -2001,7 +2043,7 @@
       <c r="Q40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>10029</v>
       </c>
@@ -2019,7 +2061,7 @@
       <c r="Q41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>10030</v>
       </c>
@@ -2037,7 +2079,7 @@
       <c r="Q42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>10031</v>
       </c>
@@ -2047,7 +2089,7 @@
       <c r="Q43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>10032</v>
       </c>
@@ -2057,7 +2099,7 @@
       <c r="Q44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>10033</v>
       </c>
@@ -2067,7 +2109,7 @@
       <c r="Q45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>10034</v>
       </c>
@@ -2077,7 +2119,7 @@
       <c r="Q46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>10035</v>
       </c>
@@ -2087,7 +2129,7 @@
       <c r="Q47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>10036</v>
       </c>
@@ -2097,7 +2139,7 @@
       <c r="Q48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>10037</v>
       </c>
@@ -2107,7 +2149,7 @@
       <c r="Q49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>10038</v>
       </c>
@@ -2117,7 +2159,7 @@
       <c r="Q50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>10039</v>
       </c>
@@ -2127,7 +2169,7 @@
       <c r="Q51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>10040</v>
       </c>
@@ -2137,7 +2179,7 @@
       <c r="Q52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>10041</v>
       </c>
@@ -2147,7 +2189,7 @@
       <c r="Q53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>20000</v>
       </c>
@@ -2165,7 +2207,7 @@
       <c r="Q54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>22000</v>
       </c>
@@ -2192,7 +2234,7 @@
       <c r="Q55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>22100</v>
       </c>
@@ -2219,7 +2261,7 @@
       <c r="Q56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>22200</v>
       </c>
@@ -2245,6 +2287,240 @@
       <c r="N57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>30000</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58">
+        <v>1000</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>30001</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59">
+        <v>500</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>30002</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>30003</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61">
+        <v>500</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>30004</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>30005</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>500</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>30006</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>30007</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65">
+        <v>500</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>30008</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>30009</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67">
+        <v>500</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>30010</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>30011</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69">
+        <v>500</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>30012</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="T70" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2264,52 +2540,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8F25B0-8B09-4DB6-85B1-9ECFC4D47358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA520A29-DC2E-4861-AEB8-1C970E90D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="1680" windowWidth="21690" windowHeight="12525" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -484,6 +484,10 @@
   </si>
   <si>
     <t>300121</t>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1001,10 +1005,10 @@
   <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1547,7 +1551,7 @@
         <v>10001</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="C13">
         <v>1000</v>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA520A29-DC2E-4861-AEB8-1C970E90D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C57F70-9DDA-40B1-97A8-95C99A78291C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>83001,83002,83003</t>
-  </si>
-  <si>
     <t>83004,83007</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -372,18 +369,6 @@
     <t>83001,83003,83010,83012,83013,83015</t>
   </si>
   <si>
-    <t>22048,22049,22050,22051,22052,22053,22054,22055,22056,22057,81010,81011,81012,81013,81014,81015</t>
-  </si>
-  <si>
-    <t>83004,83005,83006,83007,83008,83009,83016,83017,83018,83019,83020,83021</t>
-  </si>
-  <si>
-    <t>80003,80006,80009,80012,80015,81003,81006,81009,83301,83302,83303,83304,83305</t>
-  </si>
-  <si>
-    <t>83010,83011,83012,83013,83014,83015</t>
-  </si>
-  <si>
     <t>119</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -488,13 +473,29 @@
   <si>
     <t>107</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83010,83012,83011,83013,83015,83014</t>
+  </si>
+  <si>
+    <t>83001,83003,83002</t>
+  </si>
+  <si>
+    <t>83016,83019,83004,83007,83017,83020,83005,83008,83018,83021,83009,83006</t>
+  </si>
+  <si>
+    <t>83022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83023,83024,83025,83026,83027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,14 +515,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -601,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,25 +610,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,10 +995,10 @@
   <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1367,191 +1357,187 @@
       </c>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>1003</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5">
+        <v>600</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5">
+        <v>240</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="5">
+        <v>100</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="5">
+        <v>40</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="5">
+        <v>10</v>
+      </c>
+      <c r="P10" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" s="5">
+        <v>4</v>
+      </c>
+      <c r="S10" s="5">
+        <v>3</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="5">
+        <v>6</v>
+      </c>
+      <c r="V10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="7">
+        <v>725</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="7">
+        <v>140</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="7">
+        <v>120</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="7">
+        <v>9</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="7">
+        <v>6</v>
+      </c>
+      <c r="P11" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="6">
-        <v>600</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C12" s="5">
+        <v>800</v>
+      </c>
+      <c r="D12" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="6">
-        <v>240</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="5">
+        <v>80</v>
+      </c>
+      <c r="G12" s="10">
         <v>2</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="6">
-        <v>100</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="H12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="5">
+        <v>60</v>
+      </c>
+      <c r="J12" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="6">
-        <v>40</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="K12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="5">
+        <v>30</v>
+      </c>
+      <c r="M12" s="5">
         <v>3</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="6">
-        <v>10</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="5">
+        <v>30</v>
+      </c>
+      <c r="P12" s="5">
         <v>3</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" s="6">
-        <v>4</v>
-      </c>
-      <c r="S10" s="6">
-        <v>3</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U10" s="6">
-        <v>6</v>
-      </c>
-      <c r="V10" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="10">
-        <v>1004</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="10">
-        <v>800</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="10">
-        <v>120</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="10">
-        <v>65</v>
-      </c>
-      <c r="J11" s="10">
-        <v>3</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="10">
-        <v>9</v>
-      </c>
-      <c r="M11" s="10">
-        <v>3</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="10">
-        <v>6</v>
-      </c>
-      <c r="P11" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
-        <v>1005</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="6">
-        <v>800</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="6">
-        <v>80</v>
-      </c>
-      <c r="G12" s="9">
-        <v>2</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="6">
-        <v>60</v>
-      </c>
-      <c r="J12" s="6">
-        <v>2</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="6">
-        <v>30</v>
-      </c>
-      <c r="M12" s="6">
-        <v>3</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="6">
-        <v>30</v>
-      </c>
-      <c r="P12" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="Q12" s="9"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10001</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C13">
         <v>1000</v>
@@ -1569,7 +1555,7 @@
         <v>10002</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -1587,7 +1573,7 @@
         <v>10003</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>1000</v>
@@ -1602,7 +1588,7 @@
         <v>10004</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>1000</v>
@@ -1620,7 +1606,7 @@
         <v>10005</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>1000</v>
@@ -1638,7 +1624,7 @@
         <v>10006</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>1000</v>
@@ -1656,7 +1642,7 @@
         <v>10007</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -1674,7 +1660,7 @@
         <v>10008</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>1000</v>
@@ -1692,7 +1678,7 @@
         <v>10009</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>1000</v>
@@ -1710,7 +1696,7 @@
         <v>10010</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>1000</v>
@@ -1728,7 +1714,7 @@
         <v>10011</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>1000</v>
@@ -1746,7 +1732,7 @@
         <v>10012</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>1000</v>
@@ -1764,7 +1750,7 @@
         <v>10013</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>500</v>
@@ -1782,7 +1768,7 @@
         <v>10014</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>1000</v>
@@ -1800,7 +1786,7 @@
         <v>10015</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>1000</v>
@@ -1818,7 +1804,7 @@
         <v>10016</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <v>1000</v>
@@ -1836,7 +1822,7 @@
         <v>10017</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>1000</v>
@@ -1854,7 +1840,7 @@
         <v>10018</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C30">
         <v>1000</v>
@@ -1872,7 +1858,7 @@
         <v>10019</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C31">
         <v>1000</v>
@@ -1890,7 +1876,7 @@
         <v>10020</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C32">
         <v>1000</v>
@@ -1908,7 +1894,7 @@
         <v>10021</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C33">
         <v>1000</v>
@@ -1926,7 +1912,7 @@
         <v>10022</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C34">
         <v>1000</v>
@@ -1944,7 +1930,7 @@
         <v>10023</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>1000</v>
@@ -1962,7 +1948,7 @@
         <v>10024</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C36">
         <v>1000</v>
@@ -1980,7 +1966,7 @@
         <v>10025</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <v>1000</v>
@@ -1998,7 +1984,7 @@
         <v>10026</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>1000</v>
@@ -2016,7 +2002,7 @@
         <v>10027</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C39">
         <v>1000</v>
@@ -2034,7 +2020,7 @@
         <v>10028</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>1000</v>
@@ -2052,7 +2038,7 @@
         <v>10029</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C41">
         <v>1000</v>
@@ -2070,7 +2056,7 @@
         <v>10030</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>1000</v>
@@ -2198,7 +2184,7 @@
         <v>20000</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>1000</v>
@@ -2216,7 +2202,7 @@
         <v>22000</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>500</v>
@@ -2225,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F55">
         <v>500</v>
@@ -2243,7 +2229,7 @@
         <v>22100</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56">
         <v>500</v>
@@ -2252,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F56">
         <v>500</v>
@@ -2270,7 +2256,7 @@
         <v>22200</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>500</v>
@@ -2279,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F57">
         <v>500</v>
@@ -2297,7 +2283,7 @@
         <v>30000</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C58">
         <v>1000</v>
@@ -2315,7 +2301,7 @@
         <v>30001</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C59">
         <v>500</v>
@@ -2333,7 +2319,7 @@
         <v>30002</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -2351,7 +2337,7 @@
         <v>30003</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C61">
         <v>500</v>
@@ -2369,7 +2355,7 @@
         <v>30004</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C62">
         <v>50</v>
@@ -2387,7 +2373,7 @@
         <v>30005</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C63">
         <v>500</v>
@@ -2405,7 +2391,7 @@
         <v>30006</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C64">
         <v>50</v>
@@ -2423,7 +2409,7 @@
         <v>30007</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C65">
         <v>500</v>
@@ -2441,7 +2427,7 @@
         <v>30008</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C66">
         <v>50</v>
@@ -2459,7 +2445,7 @@
         <v>30009</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C67">
         <v>500</v>
@@ -2477,7 +2463,7 @@
         <v>30010</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>50</v>
@@ -2495,7 +2481,7 @@
         <v>30011</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C69">
         <v>500</v>
@@ -2513,7 +2499,7 @@
         <v>30012</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C70">
         <v>50</v>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C57F70-9DDA-40B1-97A8-95C99A78291C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B845348-CAEF-447E-A754-547D6A423F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="30300" yWindow="690" windowWidth="21705" windowHeight="13155" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -489,6 +489,22 @@
   </si>
   <si>
     <t>83023,83024,83025,83026,83027</t>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3003</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -665,8 +681,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V70" totalsRowShown="0">
-  <autoFilter ref="A1:V70" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V74" totalsRowShown="0">
+  <autoFilter ref="A1:V74" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -992,28 +1008,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="38.69921875" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.3984375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" customWidth="1"/>
+    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1096,7 +1112,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1111,7 +1127,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1126,7 +1142,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1153,7 +1169,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1168,7 +1184,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -1228,7 +1244,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1288,7 +1304,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1356,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>1003</v>
       </c>
@@ -1424,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>1004</v>
       </c>
@@ -1480,7 +1496,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>1005</v>
       </c>
@@ -1532,7 +1548,7 @@
       <c r="Q12" s="9"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10001</v>
       </c>
@@ -1550,7 +1566,7 @@
       <c r="Q13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10002</v>
       </c>
@@ -1568,7 +1584,7 @@
       <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10003</v>
       </c>
@@ -1583,7 +1599,7 @@
       </c>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10004</v>
       </c>
@@ -1601,7 +1617,7 @@
       <c r="Q16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10005</v>
       </c>
@@ -1619,7 +1635,7 @@
       <c r="Q17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10006</v>
       </c>
@@ -1637,7 +1653,7 @@
       <c r="Q18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10007</v>
       </c>
@@ -1655,7 +1671,7 @@
       <c r="Q19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10008</v>
       </c>
@@ -1673,7 +1689,7 @@
       <c r="Q20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10009</v>
       </c>
@@ -1691,7 +1707,7 @@
       <c r="Q21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>10010</v>
       </c>
@@ -1709,7 +1725,7 @@
       <c r="Q22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10011</v>
       </c>
@@ -1727,7 +1743,7 @@
       <c r="Q23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10012</v>
       </c>
@@ -1745,7 +1761,7 @@
       <c r="Q24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10013</v>
       </c>
@@ -1763,7 +1779,7 @@
       <c r="Q25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>10014</v>
       </c>
@@ -1781,7 +1797,7 @@
       <c r="Q26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>10015</v>
       </c>
@@ -1799,7 +1815,7 @@
       <c r="Q27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>10016</v>
       </c>
@@ -1817,7 +1833,7 @@
       <c r="Q28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>10017</v>
       </c>
@@ -1835,7 +1851,7 @@
       <c r="Q29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>10018</v>
       </c>
@@ -1853,7 +1869,7 @@
       <c r="Q30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>10019</v>
       </c>
@@ -1871,7 +1887,7 @@
       <c r="Q31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>10020</v>
       </c>
@@ -1889,7 +1905,7 @@
       <c r="Q32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>10021</v>
       </c>
@@ -1907,7 +1923,7 @@
       <c r="Q33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>10022</v>
       </c>
@@ -1925,7 +1941,7 @@
       <c r="Q34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>10023</v>
       </c>
@@ -1943,7 +1959,7 @@
       <c r="Q35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>10024</v>
       </c>
@@ -1961,7 +1977,7 @@
       <c r="Q36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>10025</v>
       </c>
@@ -1979,7 +1995,7 @@
       <c r="Q37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>10026</v>
       </c>
@@ -1997,7 +2013,7 @@
       <c r="Q38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>10027</v>
       </c>
@@ -2015,7 +2031,7 @@
       <c r="Q39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>10028</v>
       </c>
@@ -2033,7 +2049,7 @@
       <c r="Q40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>10029</v>
       </c>
@@ -2051,7 +2067,7 @@
       <c r="Q41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>10030</v>
       </c>
@@ -2069,7 +2085,7 @@
       <c r="Q42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>10031</v>
       </c>
@@ -2079,7 +2095,7 @@
       <c r="Q43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>10032</v>
       </c>
@@ -2089,7 +2105,7 @@
       <c r="Q44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>10033</v>
       </c>
@@ -2099,7 +2115,7 @@
       <c r="Q45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>10034</v>
       </c>
@@ -2109,7 +2125,7 @@
       <c r="Q46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>10035</v>
       </c>
@@ -2119,7 +2135,7 @@
       <c r="Q47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>10036</v>
       </c>
@@ -2129,7 +2145,7 @@
       <c r="Q48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>10037</v>
       </c>
@@ -2139,7 +2155,7 @@
       <c r="Q49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>10038</v>
       </c>
@@ -2149,7 +2165,7 @@
       <c r="Q50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>10039</v>
       </c>
@@ -2159,7 +2175,7 @@
       <c r="Q51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>10040</v>
       </c>
@@ -2169,7 +2185,7 @@
       <c r="Q52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>10041</v>
       </c>
@@ -2179,7 +2195,7 @@
       <c r="Q53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>20000</v>
       </c>
@@ -2197,7 +2213,7 @@
       <c r="Q54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>22000</v>
       </c>
@@ -2224,7 +2240,7 @@
       <c r="Q55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>22100</v>
       </c>
@@ -2251,7 +2267,7 @@
       <c r="Q56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>22200</v>
       </c>
@@ -2278,7 +2294,7 @@
       <c r="Q57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>30000</v>
       </c>
@@ -2296,7 +2312,7 @@
       <c r="Q58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>30001</v>
       </c>
@@ -2314,7 +2330,7 @@
       <c r="Q59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>30002</v>
       </c>
@@ -2332,7 +2348,7 @@
       <c r="Q60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>30003</v>
       </c>
@@ -2350,7 +2366,7 @@
       <c r="Q61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>30004</v>
       </c>
@@ -2368,7 +2384,7 @@
       <c r="Q62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>30005</v>
       </c>
@@ -2386,7 +2402,7 @@
       <c r="Q63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>30006</v>
       </c>
@@ -2404,7 +2420,7 @@
       <c r="Q64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>30007</v>
       </c>
@@ -2422,7 +2438,7 @@
       <c r="Q65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>30008</v>
       </c>
@@ -2440,7 +2456,7 @@
       <c r="Q66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>30009</v>
       </c>
@@ -2458,7 +2474,7 @@
       <c r="Q67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>30010</v>
       </c>
@@ -2476,7 +2492,7 @@
       <c r="Q68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>30011</v>
       </c>
@@ -2494,7 +2510,7 @@
       <c r="Q69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>30012</v>
       </c>
@@ -2511,6 +2527,78 @@
       <c r="N70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>31001</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71">
+        <v>1000</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>31002</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>31003</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>31004</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="T74" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2530,52 +2618,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B845348-CAEF-447E-A754-547D6A423F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB7F17-5E8D-4CA9-BBF2-8C321C93AA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="690" windowWidth="21705" windowHeight="13155" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="114">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -504,6 +504,10 @@
   </si>
   <si>
     <t>3003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3001,3002,3003</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1011,10 +1015,10 @@
   <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2230,9 +2234,18 @@
         <v>62</v>
       </c>
       <c r="F55">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55">
         <v>1</v>
       </c>
       <c r="K55" s="1"/>
@@ -2257,9 +2270,18 @@
         <v>62</v>
       </c>
       <c r="F56">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I56">
+        <v>50</v>
+      </c>
+      <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" s="1"/>
@@ -2284,9 +2306,18 @@
         <v>62</v>
       </c>
       <c r="F57">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57">
+        <v>50</v>
+      </c>
+      <c r="J57">
         <v>1</v>
       </c>
       <c r="K57" s="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB7F17-5E8D-4CA9-BBF2-8C321C93AA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB60E42A-8A09-49D6-81E4-DD2E362C83AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="2844" yWindow="864" windowWidth="19356" windowHeight="10200" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="116">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -509,6 +509,12 @@
   <si>
     <t>3001,3002,3003</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>3005</t>
   </si>
 </sst>
 </file>
@@ -685,8 +691,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V74" totalsRowShown="0">
-  <autoFilter ref="A1:V74" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V76" totalsRowShown="0">
+  <autoFilter ref="A1:V76" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -1012,13 +1018,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2630,6 +2636,42 @@
       <c r="N74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>31005</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>31006</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="T76" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB60E42A-8A09-49D6-81E4-DD2E362C83AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE9D673-0FD2-451A-B5BA-A20905BA62D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="864" windowWidth="19356" windowHeight="10200" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -278,14 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>83004,83007</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>83005,83006,83008,83009</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>109,110</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -334,41 +326,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>83010,83011,83012,83013</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>83014,83015</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>83001</t>
-  </si>
-  <si>
-    <t>83002,83003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>83016,83017,83018,83019,83020,83021</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>83005,83008,83017,83020</t>
-  </si>
-  <si>
-    <t>83004,83007,83016,83019</t>
-  </si>
-  <si>
-    <t>83006,83009,83018,83021</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>83002,83011,83014</t>
-  </si>
-  <si>
-    <t>83001,83003,83010,83012,83013,83015</t>
-  </si>
-  <si>
     <t>119</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -475,53 +432,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>83010,83012,83011,83013,83015,83014</t>
-  </si>
-  <si>
-    <t>83001,83003,83002</t>
-  </si>
-  <si>
     <t>83016,83019,83004,83007,83017,83020,83005,83008,83018,83021,83009,83006</t>
   </si>
   <si>
+    <t>3000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3001,3002,3003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>83028,83029,83030</t>
+  </si>
+  <si>
+    <t>83031,83032,83033</t>
+  </si>
+  <si>
+    <t>83010,83012,83011,83013,83015,83014,83001,83003,83002</t>
+  </si>
+  <si>
+    <t>83034,83035,83036</t>
+  </si>
+  <si>
+    <t>83016,83019,83004,83007</t>
+  </si>
+  <si>
+    <t>83017,83020,83005,83008,83018,83021,83009,83006</t>
+  </si>
+  <si>
+    <t>83023,83025,83024,83026,83027</t>
+  </si>
+  <si>
     <t>83022</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>83023,83024,83025,83026,83027</t>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3001,3002,3003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3004</t>
-  </si>
-  <si>
-    <t>3005</t>
+  </si>
+  <si>
+    <t>83028,83029,83030,83031,83032,83033,83010,83012,83011,83013,83015,83014,83001,83003,83002</t>
+  </si>
+  <si>
+    <t>83036,83017,83020,83005,83008</t>
+  </si>
+  <si>
+    <t>83034,83035,83016,83019,83004,83007,83018,83021,83009,83006</t>
+  </si>
+  <si>
+    <t>83030,83033,83011,83014,83002</t>
+  </si>
+  <si>
+    <t>83028,83029,83031,83032,83010,83012,83013,83015,83001,83003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,21 +531,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,12 +548,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -620,7 +589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,22 +605,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,25 +981,25 @@
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="38.69921875" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" customWidth="1"/>
-    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1122,7 +1082,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1137,7 +1097,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1152,7 +1112,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1179,7 +1139,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1194,7 +1154,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -1254,7 +1214,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1314,7 +1274,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1382,188 +1342,169 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>1003</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>69</v>
+      <c r="B10" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C10" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>52</v>
+      <c r="E10" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="F10" s="5">
-        <v>240</v>
-      </c>
-      <c r="G10" s="10">
+        <v>216</v>
+      </c>
+      <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>51</v>
+      <c r="H10" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="I10" s="5">
-        <v>100</v>
+        <v>424</v>
       </c>
       <c r="J10" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>65</v>
+      <c r="K10" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="L10" s="5">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M10" s="5">
         <v>3</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>66</v>
+      <c r="N10" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="O10" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P10" s="5">
         <v>3</v>
       </c>
-      <c r="Q10" s="9" t="s">
-        <v>67</v>
+      <c r="Q10" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="R10" s="5">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S10" s="5">
         <v>3</v>
       </c>
-      <c r="T10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="U10" s="5">
-        <v>6</v>
-      </c>
-      <c r="V10" s="5">
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="5">
+        <v>500</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="5">
+        <v>95</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="5">
+        <v>150</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="5">
+        <v>240</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="5">
+        <v>15</v>
+      </c>
+      <c r="P11" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="7">
-        <v>1004</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="7">
-        <v>725</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="7">
-        <v>140</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="7">
-        <v>120</v>
-      </c>
-      <c r="J11" s="7">
-        <v>2</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="7">
-        <v>9</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11" s="7">
-        <v>6</v>
-      </c>
-      <c r="P11" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q11" s="6"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>1005</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>70</v>
+      <c r="B12" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C12" s="5">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>71</v>
+      <c r="E12" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="F12" s="5">
-        <v>80</v>
-      </c>
-      <c r="G12" s="10">
+        <v>440</v>
+      </c>
+      <c r="G12" s="7">
         <v>2</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>72</v>
+      <c r="H12" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="I12" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J12" s="5">
-        <v>2</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="L12" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M12" s="5">
         <v>3</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="5">
-        <v>30</v>
-      </c>
-      <c r="P12" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="9"/>
-      <c r="T12" s="9"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="N12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10001</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C13">
         <v>1000</v>
@@ -1576,12 +1517,12 @@
       <c r="Q13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10002</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -1594,12 +1535,12 @@
       <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10003</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>1000</v>
@@ -1609,12 +1550,12 @@
       </c>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10004</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>1000</v>
@@ -1627,12 +1568,12 @@
       <c r="Q16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10005</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>1000</v>
@@ -1645,12 +1586,12 @@
       <c r="Q17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10006</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>1000</v>
@@ -1663,12 +1604,12 @@
       <c r="Q18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10007</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -1681,12 +1622,12 @@
       <c r="Q19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10008</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>1000</v>
@@ -1699,12 +1640,12 @@
       <c r="Q20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>10009</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>1000</v>
@@ -1717,12 +1658,12 @@
       <c r="Q21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>10010</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>1000</v>
@@ -1735,12 +1676,12 @@
       <c r="Q22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>10011</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>1000</v>
@@ -1753,12 +1694,12 @@
       <c r="Q23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>10012</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>1000</v>
@@ -1771,12 +1712,12 @@
       <c r="Q24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>10013</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>500</v>
@@ -1789,12 +1730,12 @@
       <c r="Q25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>10014</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>1000</v>
@@ -1807,12 +1748,12 @@
       <c r="Q26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>10015</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>1000</v>
@@ -1825,12 +1766,12 @@
       <c r="Q27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>10016</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>1000</v>
@@ -1843,12 +1784,12 @@
       <c r="Q28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>10017</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>1000</v>
@@ -1861,12 +1802,12 @@
       <c r="Q29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>10018</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>1000</v>
@@ -1879,12 +1820,12 @@
       <c r="Q30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>10019</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>1000</v>
@@ -1897,12 +1838,12 @@
       <c r="Q31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>10020</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>1000</v>
@@ -1915,12 +1856,12 @@
       <c r="Q32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>10021</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>1000</v>
@@ -1933,12 +1874,12 @@
       <c r="Q33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>10022</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>1000</v>
@@ -1951,12 +1892,12 @@
       <c r="Q34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>10023</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>1000</v>
@@ -1969,12 +1910,12 @@
       <c r="Q35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>10024</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>1000</v>
@@ -1987,12 +1928,12 @@
       <c r="Q36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>10025</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>1000</v>
@@ -2005,12 +1946,12 @@
       <c r="Q37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>10026</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <v>1000</v>
@@ -2023,12 +1964,12 @@
       <c r="Q38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>10027</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>1000</v>
@@ -2041,12 +1982,12 @@
       <c r="Q39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>10028</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>1000</v>
@@ -2059,12 +2000,12 @@
       <c r="Q40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>10029</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C41">
         <v>1000</v>
@@ -2077,12 +2018,12 @@
       <c r="Q41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>10030</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C42">
         <v>1000</v>
@@ -2095,7 +2036,7 @@
       <c r="Q42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>10031</v>
       </c>
@@ -2105,7 +2046,7 @@
       <c r="Q43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>10032</v>
       </c>
@@ -2115,7 +2056,7 @@
       <c r="Q44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>10033</v>
       </c>
@@ -2125,7 +2066,7 @@
       <c r="Q45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>10034</v>
       </c>
@@ -2135,7 +2076,7 @@
       <c r="Q46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>10035</v>
       </c>
@@ -2145,7 +2086,7 @@
       <c r="Q47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>10036</v>
       </c>
@@ -2155,7 +2096,7 @@
       <c r="Q48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>10037</v>
       </c>
@@ -2165,7 +2106,7 @@
       <c r="Q49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>10038</v>
       </c>
@@ -2175,7 +2116,7 @@
       <c r="Q50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>10039</v>
       </c>
@@ -2185,7 +2126,7 @@
       <c r="Q51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>10040</v>
       </c>
@@ -2195,7 +2136,7 @@
       <c r="Q52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>10041</v>
       </c>
@@ -2205,12 +2146,12 @@
       <c r="Q53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>20000</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>1000</v>
@@ -2223,12 +2164,12 @@
       <c r="Q54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>22000</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>500</v>
@@ -2237,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55">
         <v>450</v>
@@ -2246,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="I55">
         <v>50</v>
@@ -2259,12 +2200,12 @@
       <c r="Q55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>22100</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>500</v>
@@ -2273,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56">
         <v>450</v>
@@ -2282,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="I56">
         <v>50</v>
@@ -2295,12 +2236,12 @@
       <c r="Q56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>22200</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>500</v>
@@ -2309,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57">
         <v>450</v>
@@ -2318,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="I57">
         <v>50</v>
@@ -2331,12 +2272,12 @@
       <c r="Q57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>30000</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C58">
         <v>1000</v>
@@ -2349,12 +2290,12 @@
       <c r="Q58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>30001</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C59">
         <v>500</v>
@@ -2367,12 +2308,12 @@
       <c r="Q59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>30002</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -2385,12 +2326,12 @@
       <c r="Q60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>30003</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C61">
         <v>500</v>
@@ -2403,12 +2344,12 @@
       <c r="Q61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>30004</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C62">
         <v>50</v>
@@ -2421,12 +2362,12 @@
       <c r="Q62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>30005</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C63">
         <v>500</v>
@@ -2439,12 +2380,12 @@
       <c r="Q63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>30006</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C64">
         <v>50</v>
@@ -2457,12 +2398,12 @@
       <c r="Q64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>30007</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C65">
         <v>500</v>
@@ -2475,12 +2416,12 @@
       <c r="Q65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>30008</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C66">
         <v>50</v>
@@ -2493,12 +2434,12 @@
       <c r="Q66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>30009</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C67">
         <v>500</v>
@@ -2511,12 +2452,12 @@
       <c r="Q67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>30010</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C68">
         <v>50</v>
@@ -2529,12 +2470,12 @@
       <c r="Q68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>30011</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C69">
         <v>500</v>
@@ -2547,12 +2488,12 @@
       <c r="Q69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>30012</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C70">
         <v>50</v>
@@ -2565,12 +2506,12 @@
       <c r="Q70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>31001</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C71">
         <v>1000</v>
@@ -2583,12 +2524,12 @@
       <c r="Q71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>31002</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C72">
         <v>10</v>
@@ -2601,12 +2542,12 @@
       <c r="Q72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>31003</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C73">
         <v>10</v>
@@ -2619,12 +2560,12 @@
       <c r="Q73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>31004</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -2637,12 +2578,12 @@
       <c r="Q74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>31005</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -2655,12 +2596,12 @@
       <c r="Q75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>31006</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C76">
         <v>10</v>
@@ -2691,52 +2632,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE9D673-0FD2-451A-B5BA-A20905BA62D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE418D2-11EF-4F19-968F-C7536EC9084B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="2484" yWindow="720" windowWidth="20316" windowHeight="11352" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -498,6 +498,10 @@
   </si>
   <si>
     <t>83028,83029,83031,83032,83010,83012,83013,83015,83001,83003</t>
+  </si>
+  <si>
+    <t>122</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -981,25 +985,25 @@
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="38.69921875" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.3984375" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" customWidth="1"/>
-    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.09765625" customWidth="1"/>
+    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1082,7 +1086,7 @@
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1097,7 +1101,7 @@
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1112,7 +1116,7 @@
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1139,7 +1143,7 @@
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1154,7 +1158,7 @@
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -1214,7 +1218,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1274,7 +1278,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>1003</v>
       </c>
@@ -1402,7 +1406,7 @@
       </c>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>1004</v>
       </c>
@@ -1455,7 +1459,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>1005</v>
       </c>
@@ -1499,7 +1503,7 @@
       <c r="Q12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10001</v>
       </c>
@@ -1517,7 +1521,7 @@
       <c r="Q13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10002</v>
       </c>
@@ -1535,7 +1539,7 @@
       <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10003</v>
       </c>
@@ -1550,7 +1554,7 @@
       </c>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10004</v>
       </c>
@@ -1568,7 +1572,7 @@
       <c r="Q16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10005</v>
       </c>
@@ -1586,7 +1590,7 @@
       <c r="Q17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10006</v>
       </c>
@@ -1604,7 +1608,7 @@
       <c r="Q18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10007</v>
       </c>
@@ -1622,7 +1626,7 @@
       <c r="Q19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10008</v>
       </c>
@@ -1640,7 +1644,7 @@
       <c r="Q20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10009</v>
       </c>
@@ -1658,7 +1662,7 @@
       <c r="Q21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>10010</v>
       </c>
@@ -1676,7 +1680,7 @@
       <c r="Q22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10011</v>
       </c>
@@ -1694,7 +1698,7 @@
       <c r="Q23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10012</v>
       </c>
@@ -1712,7 +1716,7 @@
       <c r="Q24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10013</v>
       </c>
@@ -1730,7 +1734,7 @@
       <c r="Q25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>10014</v>
       </c>
@@ -1748,7 +1752,7 @@
       <c r="Q26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>10015</v>
       </c>
@@ -1766,7 +1770,7 @@
       <c r="Q27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>10016</v>
       </c>
@@ -1784,7 +1788,7 @@
       <c r="Q28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>10017</v>
       </c>
@@ -1802,7 +1806,7 @@
       <c r="Q29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>10018</v>
       </c>
@@ -1820,7 +1824,7 @@
       <c r="Q30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>10019</v>
       </c>
@@ -1838,7 +1842,7 @@
       <c r="Q31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>10020</v>
       </c>
@@ -1856,7 +1860,7 @@
       <c r="Q32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>10021</v>
       </c>
@@ -1874,7 +1878,7 @@
       <c r="Q33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>10022</v>
       </c>
@@ -1892,7 +1896,7 @@
       <c r="Q34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>10023</v>
       </c>
@@ -1910,7 +1914,7 @@
       <c r="Q35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>10024</v>
       </c>
@@ -1928,7 +1932,7 @@
       <c r="Q36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>10025</v>
       </c>
@@ -1946,7 +1950,7 @@
       <c r="Q37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>10026</v>
       </c>
@@ -1964,7 +1968,7 @@
       <c r="Q38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>10027</v>
       </c>
@@ -1982,7 +1986,7 @@
       <c r="Q39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>10028</v>
       </c>
@@ -2000,7 +2004,7 @@
       <c r="Q40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>10029</v>
       </c>
@@ -2018,7 +2022,7 @@
       <c r="Q41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>10030</v>
       </c>
@@ -2036,17 +2040,25 @@
       <c r="Q42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>10031</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="N43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>10032</v>
       </c>
@@ -2056,7 +2068,7 @@
       <c r="Q44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>10033</v>
       </c>
@@ -2066,7 +2078,7 @@
       <c r="Q45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>10034</v>
       </c>
@@ -2076,7 +2088,7 @@
       <c r="Q46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>10035</v>
       </c>
@@ -2086,7 +2098,7 @@
       <c r="Q47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>10036</v>
       </c>
@@ -2096,7 +2108,7 @@
       <c r="Q48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>10037</v>
       </c>
@@ -2106,7 +2118,7 @@
       <c r="Q49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>10038</v>
       </c>
@@ -2116,7 +2128,7 @@
       <c r="Q50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>10039</v>
       </c>
@@ -2126,7 +2138,7 @@
       <c r="Q51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>10040</v>
       </c>
@@ -2136,7 +2148,7 @@
       <c r="Q52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>10041</v>
       </c>
@@ -2146,7 +2158,7 @@
       <c r="Q53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>20000</v>
       </c>
@@ -2164,7 +2176,7 @@
       <c r="Q54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>22000</v>
       </c>
@@ -2200,7 +2212,7 @@
       <c r="Q55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>22100</v>
       </c>
@@ -2236,7 +2248,7 @@
       <c r="Q56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>22200</v>
       </c>
@@ -2272,7 +2284,7 @@
       <c r="Q57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>30000</v>
       </c>
@@ -2290,7 +2302,7 @@
       <c r="Q58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>30001</v>
       </c>
@@ -2308,7 +2320,7 @@
       <c r="Q59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>30002</v>
       </c>
@@ -2326,7 +2338,7 @@
       <c r="Q60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>30003</v>
       </c>
@@ -2344,7 +2356,7 @@
       <c r="Q61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>30004</v>
       </c>
@@ -2362,7 +2374,7 @@
       <c r="Q62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>30005</v>
       </c>
@@ -2380,7 +2392,7 @@
       <c r="Q63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>30006</v>
       </c>
@@ -2398,7 +2410,7 @@
       <c r="Q64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>30007</v>
       </c>
@@ -2416,7 +2428,7 @@
       <c r="Q65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>30008</v>
       </c>
@@ -2434,7 +2446,7 @@
       <c r="Q66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>30009</v>
       </c>
@@ -2452,7 +2464,7 @@
       <c r="Q67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>30010</v>
       </c>
@@ -2470,7 +2482,7 @@
       <c r="Q68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>30011</v>
       </c>
@@ -2488,7 +2500,7 @@
       <c r="Q69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>30012</v>
       </c>
@@ -2506,7 +2518,7 @@
       <c r="Q70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>31001</v>
       </c>
@@ -2524,7 +2536,7 @@
       <c r="Q71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>31002</v>
       </c>
@@ -2542,7 +2554,7 @@
       <c r="Q72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>31003</v>
       </c>
@@ -2560,7 +2572,7 @@
       <c r="Q73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>31004</v>
       </c>
@@ -2578,7 +2590,7 @@
       <c r="Q74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>31005</v>
       </c>
@@ -2596,7 +2608,7 @@
       <c r="Q75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>31006</v>
       </c>
@@ -2632,52 +2644,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE418D2-11EF-4F19-968F-C7536EC9084B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0DD857-EAF7-40CC-B2C7-655C35983CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2484" yWindow="720" windowWidth="20316" windowHeight="11352" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20316" windowHeight="11352" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -502,6 +502,12 @@
   <si>
     <t>122</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>3007</t>
   </si>
 </sst>
 </file>
@@ -655,8 +661,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V76" totalsRowShown="0">
-  <autoFilter ref="A1:V76" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V78" totalsRowShown="0">
+  <autoFilter ref="A1:V78" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -982,13 +988,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43:D43"/>
+      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2544,7 +2550,7 @@
         <v>94</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2562,7 +2568,7 @@
         <v>95</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2580,7 +2586,7 @@
         <v>96</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2625,6 +2631,42 @@
       <c r="N76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>31007</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="T77" s="1"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>31008</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="T78" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0DD857-EAF7-40CC-B2C7-655C35983CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA8C3D7-DA7C-4D56-A331-11A17BED837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20316" windowHeight="11352" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -988,28 +988,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="38.69921875" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.3984375" customWidth="1"/>
-    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.09765625" customWidth="1"/>
-    <col min="11" max="11" width="32.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="22" width="12.375" customWidth="1"/>
+    <col min="23" max="23" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="K2" s="1"/>
       <c r="N2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1100,14 +1097,14 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="K3" s="1"/>
       <c r="N3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1115,14 +1112,14 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="K4" s="1"/>
       <c r="N4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1130,26 +1127,26 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>450</v>
+        <v>4500</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>450</v>
+        <v>4500</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K5" s="1"/>
       <c r="N5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1157,14 +1154,14 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K6" s="1"/>
       <c r="N6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -1172,7 +1169,7 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>480</v>
+        <v>4800</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1181,7 +1178,7 @@
         <v>35</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1190,7 +1187,7 @@
         <v>36</v>
       </c>
       <c r="I7">
-        <v>350</v>
+        <v>3500</v>
       </c>
       <c r="J7" s="4">
         <v>2</v>
@@ -1199,7 +1196,7 @@
         <v>37</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -1208,7 +1205,7 @@
         <v>38</v>
       </c>
       <c r="O7">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="P7">
         <v>3</v>
@@ -1217,14 +1214,14 @@
         <v>39</v>
       </c>
       <c r="R7">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="S7">
         <v>3</v>
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -1232,7 +1229,7 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>480</v>
+        <v>4800</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1241,7 +1238,7 @@
         <v>35</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1250,7 +1247,7 @@
         <v>43</v>
       </c>
       <c r="I8">
-        <v>350</v>
+        <v>3500</v>
       </c>
       <c r="J8" s="4">
         <v>2</v>
@@ -1259,7 +1256,7 @@
         <v>42</v>
       </c>
       <c r="L8">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -1268,7 +1265,7 @@
         <v>41</v>
       </c>
       <c r="O8">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="P8">
         <v>3</v>
@@ -1277,14 +1274,14 @@
         <v>40</v>
       </c>
       <c r="R8">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="S8">
         <v>3</v>
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1292,7 +1289,7 @@
         <v>44</v>
       </c>
       <c r="C9">
-        <v>520</v>
+        <v>5200</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1301,7 +1298,7 @@
         <v>45</v>
       </c>
       <c r="F9">
-        <v>280</v>
+        <v>2800</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1310,7 +1307,7 @@
         <v>46</v>
       </c>
       <c r="I9">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1319,7 +1316,7 @@
         <v>47</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="M9">
         <v>3</v>
@@ -1328,7 +1325,7 @@
         <v>48</v>
       </c>
       <c r="O9">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="P9">
         <v>3</v>
@@ -1337,7 +1334,7 @@
         <v>49</v>
       </c>
       <c r="R9">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="S9">
         <v>3</v>
@@ -1346,13 +1343,13 @@
         <v>50</v>
       </c>
       <c r="U9">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="V9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>1003</v>
       </c>
@@ -1360,7 +1357,7 @@
         <v>103</v>
       </c>
       <c r="C10" s="5">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
@@ -1369,7 +1366,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="5">
-        <v>216</v>
+        <v>2160</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -1378,7 +1375,7 @@
         <v>105</v>
       </c>
       <c r="I10" s="5">
-        <v>424</v>
+        <v>4240</v>
       </c>
       <c r="J10" s="5">
         <v>2</v>
@@ -1387,7 +1384,7 @@
         <v>100</v>
       </c>
       <c r="L10" s="5">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="M10" s="5">
         <v>3</v>
@@ -1396,7 +1393,7 @@
         <v>101</v>
       </c>
       <c r="O10" s="5">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="P10" s="5">
         <v>3</v>
@@ -1405,14 +1402,14 @@
         <v>102</v>
       </c>
       <c r="R10" s="5">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="S10" s="5">
         <v>3</v>
       </c>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>1004</v>
       </c>
@@ -1420,7 +1417,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="5">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
@@ -1429,7 +1426,7 @@
         <v>107</v>
       </c>
       <c r="F11" s="5">
-        <v>95</v>
+        <v>950</v>
       </c>
       <c r="G11" s="5">
         <v>2</v>
@@ -1438,7 +1435,7 @@
         <v>103</v>
       </c>
       <c r="I11" s="5">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="J11" s="5">
         <v>2</v>
@@ -1447,7 +1444,7 @@
         <v>92</v>
       </c>
       <c r="L11" s="5">
-        <v>240</v>
+        <v>2400</v>
       </c>
       <c r="M11" s="5">
         <v>2</v>
@@ -1456,7 +1453,7 @@
         <v>108</v>
       </c>
       <c r="O11" s="5">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="P11" s="5">
         <v>3</v>
@@ -1465,7 +1462,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>1005</v>
       </c>
@@ -1473,7 +1470,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="5">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
@@ -1482,7 +1479,7 @@
         <v>110</v>
       </c>
       <c r="F12" s="5">
-        <v>440</v>
+        <v>4400</v>
       </c>
       <c r="G12" s="7">
         <v>2</v>
@@ -1491,7 +1488,7 @@
         <v>111</v>
       </c>
       <c r="I12" s="5">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="J12" s="5">
         <v>3</v>
@@ -1500,7 +1497,7 @@
         <v>112</v>
       </c>
       <c r="L12" s="5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="M12" s="5">
         <v>3</v>
@@ -1509,7 +1506,7 @@
       <c r="Q12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10001</v>
       </c>
@@ -1517,7 +1514,7 @@
         <v>91</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1527,7 +1524,7 @@
       <c r="Q13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10002</v>
       </c>
@@ -1535,7 +1532,7 @@
         <v>53</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1545,7 +1542,7 @@
       <c r="Q14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10003</v>
       </c>
@@ -1553,14 +1550,14 @@
         <v>53</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10004</v>
       </c>
@@ -1568,7 +1565,7 @@
         <v>54</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1578,7 +1575,7 @@
       <c r="Q16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10005</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>54</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1596,7 +1593,7 @@
       <c r="Q17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10006</v>
       </c>
@@ -1604,7 +1601,7 @@
         <v>54</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1614,7 +1611,7 @@
       <c r="Q18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10007</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>54</v>
       </c>
       <c r="C19">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1632,7 +1629,7 @@
       <c r="Q19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10008</v>
       </c>
@@ -1640,7 +1637,7 @@
         <v>54</v>
       </c>
       <c r="C20">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1650,7 +1647,7 @@
       <c r="Q20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>10009</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>54</v>
       </c>
       <c r="C21">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1668,7 +1665,7 @@
       <c r="Q21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>10010</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>55</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1686,7 +1683,7 @@
       <c r="Q22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>10011</v>
       </c>
@@ -1694,7 +1691,7 @@
         <v>56</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1704,7 +1701,7 @@
       <c r="Q23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>10012</v>
       </c>
@@ -1712,7 +1709,7 @@
         <v>57</v>
       </c>
       <c r="C24">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1722,7 +1719,7 @@
       <c r="Q24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>10013</v>
       </c>
@@ -1730,7 +1727,7 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1740,7 +1737,7 @@
       <c r="Q25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>10014</v>
       </c>
@@ -1748,7 +1745,7 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1758,7 +1755,7 @@
       <c r="Q26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>10015</v>
       </c>
@@ -1766,7 +1763,7 @@
         <v>63</v>
       </c>
       <c r="C27">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1776,7 +1773,7 @@
       <c r="Q27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>10016</v>
       </c>
@@ -1784,7 +1781,7 @@
         <v>64</v>
       </c>
       <c r="C28">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1794,7 +1791,7 @@
       <c r="Q28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>10017</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>65</v>
       </c>
       <c r="C29">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1812,7 +1809,7 @@
       <c r="Q29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>10018</v>
       </c>
@@ -1820,7 +1817,7 @@
         <v>66</v>
       </c>
       <c r="C30">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1830,7 +1827,7 @@
       <c r="Q30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>10019</v>
       </c>
@@ -1838,7 +1835,7 @@
         <v>67</v>
       </c>
       <c r="C31">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1848,7 +1845,7 @@
       <c r="Q31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>10020</v>
       </c>
@@ -1856,7 +1853,7 @@
         <v>68</v>
       </c>
       <c r="C32">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1866,7 +1863,7 @@
       <c r="Q32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>10021</v>
       </c>
@@ -1874,7 +1871,7 @@
         <v>70</v>
       </c>
       <c r="C33">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1884,7 +1881,7 @@
       <c r="Q33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>10022</v>
       </c>
@@ -1892,7 +1889,7 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1902,7 +1899,7 @@
       <c r="Q34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>10023</v>
       </c>
@@ -1910,7 +1907,7 @@
         <v>72</v>
       </c>
       <c r="C35">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1920,7 +1917,7 @@
       <c r="Q35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>10024</v>
       </c>
@@ -1928,7 +1925,7 @@
         <v>73</v>
       </c>
       <c r="C36">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1938,7 +1935,7 @@
       <c r="Q36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>10025</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>74</v>
       </c>
       <c r="C37">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1956,7 +1953,7 @@
       <c r="Q37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>10026</v>
       </c>
@@ -1964,7 +1961,7 @@
         <v>69</v>
       </c>
       <c r="C38">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1974,7 +1971,7 @@
       <c r="Q38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>10027</v>
       </c>
@@ -1982,7 +1979,7 @@
         <v>77</v>
       </c>
       <c r="C39">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1992,7 +1989,7 @@
       <c r="Q39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>10028</v>
       </c>
@@ -2000,7 +1997,7 @@
         <v>75</v>
       </c>
       <c r="C40">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2010,7 +2007,7 @@
       <c r="Q40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>10029</v>
       </c>
@@ -2018,7 +2015,7 @@
         <v>67</v>
       </c>
       <c r="C41">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2028,7 +2025,7 @@
       <c r="Q41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>10030</v>
       </c>
@@ -2036,7 +2033,7 @@
         <v>76</v>
       </c>
       <c r="C42">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2046,7 +2043,7 @@
       <c r="Q42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>10031</v>
       </c>
@@ -2054,7 +2051,7 @@
         <v>113</v>
       </c>
       <c r="C43">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2064,7 +2061,7 @@
       <c r="Q43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>10032</v>
       </c>
@@ -2074,7 +2071,7 @@
       <c r="Q44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>10033</v>
       </c>
@@ -2084,7 +2081,7 @@
       <c r="Q45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>10034</v>
       </c>
@@ -2094,7 +2091,7 @@
       <c r="Q46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>10035</v>
       </c>
@@ -2104,7 +2101,7 @@
       <c r="Q47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>10036</v>
       </c>
@@ -2114,7 +2111,7 @@
       <c r="Q48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>10037</v>
       </c>
@@ -2124,7 +2121,7 @@
       <c r="Q49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>10038</v>
       </c>
@@ -2134,7 +2131,7 @@
       <c r="Q50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>10039</v>
       </c>
@@ -2144,7 +2141,7 @@
       <c r="Q51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>10040</v>
       </c>
@@ -2154,7 +2151,7 @@
       <c r="Q52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>10041</v>
       </c>
@@ -2164,7 +2161,7 @@
       <c r="Q53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>20000</v>
       </c>
@@ -2172,7 +2169,7 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2182,7 +2179,7 @@
       <c r="Q54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>22000</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2199,7 +2196,7 @@
         <v>60</v>
       </c>
       <c r="F55">
-        <v>450</v>
+        <v>4500</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2208,7 +2205,7 @@
         <v>97</v>
       </c>
       <c r="I55">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2218,7 +2215,7 @@
       <c r="Q55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>22100</v>
       </c>
@@ -2226,7 +2223,7 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2235,7 +2232,7 @@
         <v>60</v>
       </c>
       <c r="F56">
-        <v>450</v>
+        <v>4500</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2244,7 +2241,7 @@
         <v>97</v>
       </c>
       <c r="I56">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2254,7 +2251,7 @@
       <c r="Q56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>22200</v>
       </c>
@@ -2262,7 +2259,7 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2271,7 +2268,7 @@
         <v>60</v>
       </c>
       <c r="F57">
-        <v>450</v>
+        <v>4500</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2280,7 +2277,7 @@
         <v>97</v>
       </c>
       <c r="I57">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2290,7 +2287,7 @@
       <c r="Q57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>30000</v>
       </c>
@@ -2298,7 +2295,7 @@
         <v>78</v>
       </c>
       <c r="C58">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2308,7 +2305,7 @@
       <c r="Q58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>30001</v>
       </c>
@@ -2316,7 +2313,7 @@
         <v>79</v>
       </c>
       <c r="C59">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2326,7 +2323,7 @@
       <c r="Q59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>30002</v>
       </c>
@@ -2334,7 +2331,7 @@
         <v>80</v>
       </c>
       <c r="C60">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2344,7 +2341,7 @@
       <c r="Q60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>30003</v>
       </c>
@@ -2352,7 +2349,7 @@
         <v>81</v>
       </c>
       <c r="C61">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2362,7 +2359,7 @@
       <c r="Q61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>30004</v>
       </c>
@@ -2370,7 +2367,7 @@
         <v>82</v>
       </c>
       <c r="C62">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2380,7 +2377,7 @@
       <c r="Q62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>30005</v>
       </c>
@@ -2388,7 +2385,7 @@
         <v>83</v>
       </c>
       <c r="C63">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2398,7 +2395,7 @@
       <c r="Q63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>30006</v>
       </c>
@@ -2406,7 +2403,7 @@
         <v>84</v>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2416,7 +2413,7 @@
       <c r="Q64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>30007</v>
       </c>
@@ -2424,7 +2421,7 @@
         <v>85</v>
       </c>
       <c r="C65">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2434,7 +2431,7 @@
       <c r="Q65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>30008</v>
       </c>
@@ -2442,7 +2439,7 @@
         <v>86</v>
       </c>
       <c r="C66">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2452,7 +2449,7 @@
       <c r="Q66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>30009</v>
       </c>
@@ -2460,7 +2457,7 @@
         <v>87</v>
       </c>
       <c r="C67">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2470,7 +2467,7 @@
       <c r="Q67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>30010</v>
       </c>
@@ -2478,7 +2475,7 @@
         <v>88</v>
       </c>
       <c r="C68">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2488,7 +2485,7 @@
       <c r="Q68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>30011</v>
       </c>
@@ -2496,7 +2493,7 @@
         <v>89</v>
       </c>
       <c r="C69">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2506,7 +2503,7 @@
       <c r="Q69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>30012</v>
       </c>
@@ -2514,7 +2511,7 @@
         <v>90</v>
       </c>
       <c r="C70">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2524,7 +2521,7 @@
       <c r="Q70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>31001</v>
       </c>
@@ -2532,7 +2529,7 @@
         <v>93</v>
       </c>
       <c r="C71">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2542,7 +2539,7 @@
       <c r="Q71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>31002</v>
       </c>
@@ -2550,7 +2547,7 @@
         <v>94</v>
       </c>
       <c r="C72">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2560,7 +2557,7 @@
       <c r="Q72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>31003</v>
       </c>
@@ -2568,7 +2565,7 @@
         <v>95</v>
       </c>
       <c r="C73">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2578,7 +2575,7 @@
       <c r="Q73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>31004</v>
       </c>
@@ -2586,7 +2583,7 @@
         <v>96</v>
       </c>
       <c r="C74">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2596,7 +2593,7 @@
       <c r="Q74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>31005</v>
       </c>
@@ -2604,7 +2601,7 @@
         <v>98</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2614,7 +2611,7 @@
       <c r="Q75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>31006</v>
       </c>
@@ -2622,7 +2619,7 @@
         <v>99</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2632,7 +2629,7 @@
       <c r="Q76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>31007</v>
       </c>
@@ -2640,7 +2637,7 @@
         <v>114</v>
       </c>
       <c r="C77">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2650,7 +2647,7 @@
       <c r="Q77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>31008</v>
       </c>
@@ -2658,7 +2655,7 @@
         <v>115</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2686,52 +2683,52 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA8C3D7-DA7C-4D56-A331-11A17BED837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AAFA84-C499-49E2-A2B0-4FB43594FF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -310,22 +310,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>22001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>22002,22003,22004,22005,22006,22007,22008,22009,22010,22011,22012,22013,22014,22015,22016,22017,22018,22019,22020,22021,22022,22023,22024,22025,22026,22027,22028,22029,22030,22031,22032,22033,22034,22035,22036,22037,22038,22039,22040,22041,22042,22043,22044,22045,22046,22047,22048,22049,22050,22051,22052,22053,22054,22055,22056,22057</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>22100,22101,22102,22103,22104</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>22200,22201,22202,22203,22204</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>119</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -508,6 +496,10 @@
   </si>
   <si>
     <t>3007</t>
+  </si>
+  <si>
+    <t>22204</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -599,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,6 +614,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,13 +986,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1354,7 +1352,7 @@
         <v>1003</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5">
         <v>3000</v>
@@ -1363,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F10" s="5">
         <v>2160</v>
@@ -1372,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I10" s="5">
         <v>4240</v>
@@ -1381,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L10" s="5">
         <v>240</v>
@@ -1390,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O10" s="5">
         <v>180</v>
@@ -1399,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R10" s="5">
         <v>180</v>
@@ -1414,7 +1412,7 @@
         <v>1004</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="5">
         <v>5000</v>
@@ -1423,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F11" s="5">
         <v>950</v>
@@ -1432,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I11" s="5">
         <v>1500</v>
@@ -1441,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L11" s="5">
         <v>2400</v>
@@ -1450,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O11" s="5">
         <v>150</v>
@@ -1467,7 +1465,7 @@
         <v>1005</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" s="5">
         <v>5000</v>
@@ -1476,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F12" s="5">
         <v>4400</v>
@@ -1485,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I12" s="5">
         <v>400</v>
@@ -1494,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L12" s="5">
         <v>200</v>
@@ -1511,7 +1509,7 @@
         <v>10001</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>10000</v>
@@ -1760,7 +1758,7 @@
         <v>10015</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>10000</v>
@@ -1778,7 +1776,7 @@
         <v>10016</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>10000</v>
@@ -1796,7 +1794,7 @@
         <v>10017</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>10000</v>
@@ -1814,7 +1812,7 @@
         <v>10018</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>10000</v>
@@ -1832,7 +1830,7 @@
         <v>10019</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>10000</v>
@@ -1850,7 +1848,7 @@
         <v>10020</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>10000</v>
@@ -1868,7 +1866,7 @@
         <v>10021</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>10000</v>
@@ -1886,7 +1884,7 @@
         <v>10022</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>10000</v>
@@ -1904,7 +1902,7 @@
         <v>10023</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C35">
         <v>10000</v>
@@ -1922,7 +1920,7 @@
         <v>10024</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>10000</v>
@@ -1940,7 +1938,7 @@
         <v>10025</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>10000</v>
@@ -1958,7 +1956,7 @@
         <v>10026</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38">
         <v>10000</v>
@@ -1976,7 +1974,7 @@
         <v>10027</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>10000</v>
@@ -1994,7 +1992,7 @@
         <v>10028</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C40">
         <v>10000</v>
@@ -2012,7 +2010,7 @@
         <v>10029</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>10000</v>
@@ -2030,7 +2028,7 @@
         <v>10030</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42">
         <v>10000</v>
@@ -2048,7 +2046,7 @@
         <v>10031</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C43">
         <v>10000</v>
@@ -2180,70 +2178,64 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A55">
+      <c r="A55" s="8">
         <v>22000</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C55">
-        <v>5000</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55">
-        <v>4500</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55">
-        <v>500</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
+      <c r="C55" s="8">
+        <v>9000</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G55" s="8">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
       <c r="K55" s="1"/>
       <c r="N55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A56">
+      <c r="A56" s="8">
         <v>22100</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56">
-        <v>5000</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56">
-        <v>4500</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I56">
-        <v>500</v>
-      </c>
-      <c r="J56">
+      <c r="B56" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="8">
+        <v>8000</v>
+      </c>
+      <c r="G56" s="8">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J56" s="8">
         <v>1</v>
       </c>
       <c r="K56" s="1"/>
@@ -2252,34 +2244,34 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A57">
+      <c r="A57" s="8">
         <v>22200</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57">
-        <v>5000</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F57">
-        <v>4500</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I57">
-        <v>500</v>
-      </c>
-      <c r="J57">
+      <c r="B57" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2500</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="8">
+        <v>6500</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="8">
         <v>1</v>
       </c>
       <c r="K57" s="1"/>
@@ -2292,7 +2284,7 @@
         <v>30000</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C58">
         <v>10000</v>
@@ -2310,7 +2302,7 @@
         <v>30001</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C59">
         <v>5000</v>
@@ -2328,7 +2320,7 @@
         <v>30002</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C60">
         <v>500</v>
@@ -2346,7 +2338,7 @@
         <v>30003</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C61">
         <v>5000</v>
@@ -2364,7 +2356,7 @@
         <v>30004</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C62">
         <v>500</v>
@@ -2382,7 +2374,7 @@
         <v>30005</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C63">
         <v>5000</v>
@@ -2400,7 +2392,7 @@
         <v>30006</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C64">
         <v>500</v>
@@ -2418,7 +2410,7 @@
         <v>30007</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C65">
         <v>5000</v>
@@ -2436,7 +2428,7 @@
         <v>30008</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C66">
         <v>500</v>
@@ -2454,7 +2446,7 @@
         <v>30009</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C67">
         <v>5000</v>
@@ -2472,7 +2464,7 @@
         <v>30010</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C68">
         <v>500</v>
@@ -2490,7 +2482,7 @@
         <v>30011</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C69">
         <v>5000</v>
@@ -2508,7 +2500,7 @@
         <v>30012</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C70">
         <v>500</v>
@@ -2526,7 +2518,7 @@
         <v>31001</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C71">
         <v>10000</v>
@@ -2544,7 +2536,7 @@
         <v>31002</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C72">
         <v>300</v>
@@ -2562,7 +2554,7 @@
         <v>31003</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C73">
         <v>300</v>
@@ -2580,7 +2572,7 @@
         <v>31004</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C74">
         <v>300</v>
@@ -2598,7 +2590,7 @@
         <v>31005</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C75">
         <v>100</v>
@@ -2616,7 +2608,7 @@
         <v>31006</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C76">
         <v>100</v>
@@ -2634,7 +2626,7 @@
         <v>31007</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C77">
         <v>300</v>
@@ -2652,7 +2644,7 @@
         <v>31008</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C78">
         <v>300</v>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AAFA84-C499-49E2-A2B0-4FB43594FF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9B0FB0-2BC8-4952-B293-89AEDA76328B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -310,10 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>22002,22003,22004,22005,22006,22007,22008,22009,22010,22011,22012,22013,22014,22015,22016,22017,22018,22019,22020,22021,22022,22023,22024,22025,22026,22027,22028,22029,22030,22031,22032,22033,22034,22035,22036,22037,22038,22039,22040,22041,22042,22043,22044,22045,22046,22047,22048,22049,22050,22051,22052,22053,22054,22055,22056,22057</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>119</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -439,10 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3001,3002,3003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3004</t>
   </si>
   <si>
@@ -498,8 +490,10 @@
     <t>3007</t>
   </si>
   <si>
-    <t>22204</t>
-    <phoneticPr fontId="1"/>
+    <t>22001,22002,22003,22004,22005,22006,22007,22008,22009,22010,22011,22012,22013,22014,22015,22016,22017,22018,22019,22020,22021,22022,22023,22024,22025,22026,22027,22028,22029,22030,22031,22032,22033,22034,22035,22036,22037,22038,22039,22040,22041,22042,22043,22044,22045,22046,22047</t>
+  </si>
+  <si>
+    <t>22048,22049,22050,22051,22052,22053</t>
   </si>
 </sst>
 </file>
@@ -989,10 +983,10 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1352,7 +1346,7 @@
         <v>1003</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="5">
         <v>3000</v>
@@ -1361,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" s="5">
         <v>2160</v>
@@ -1370,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I10" s="5">
         <v>4240</v>
@@ -1379,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L10" s="5">
         <v>240</v>
@@ -1388,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O10" s="5">
         <v>180</v>
@@ -1397,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R10" s="5">
         <v>180</v>
@@ -1412,7 +1406,7 @@
         <v>1004</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5">
         <v>5000</v>
@@ -1421,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" s="5">
         <v>950</v>
@@ -1430,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I11" s="5">
         <v>1500</v>
@@ -1439,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="5">
         <v>2400</v>
@@ -1448,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O11" s="5">
         <v>150</v>
@@ -1465,7 +1459,7 @@
         <v>1005</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5">
         <v>5000</v>
@@ -1474,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F12" s="5">
         <v>4400</v>
@@ -1483,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I12" s="5">
         <v>400</v>
@@ -1492,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L12" s="5">
         <v>200</v>
@@ -1509,7 +1503,7 @@
         <v>10001</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>10000</v>
@@ -1758,7 +1752,7 @@
         <v>10015</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>10000</v>
@@ -1776,7 +1770,7 @@
         <v>10016</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>10000</v>
@@ -1794,7 +1788,7 @@
         <v>10017</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>10000</v>
@@ -1812,7 +1806,7 @@
         <v>10018</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>10000</v>
@@ -1830,7 +1824,7 @@
         <v>10019</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>10000</v>
@@ -1848,7 +1842,7 @@
         <v>10020</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>10000</v>
@@ -1866,7 +1860,7 @@
         <v>10021</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>10000</v>
@@ -1884,7 +1878,7 @@
         <v>10022</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>10000</v>
@@ -1902,7 +1896,7 @@
         <v>10023</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>10000</v>
@@ -1920,7 +1914,7 @@
         <v>10024</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>10000</v>
@@ -1938,7 +1932,7 @@
         <v>10025</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>10000</v>
@@ -1956,7 +1950,7 @@
         <v>10026</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>10000</v>
@@ -1974,7 +1968,7 @@
         <v>10027</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39">
         <v>10000</v>
@@ -1992,7 +1986,7 @@
         <v>10028</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40">
         <v>10000</v>
@@ -2010,7 +2004,7 @@
         <v>10029</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>10000</v>
@@ -2028,7 +2022,7 @@
         <v>10030</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>10000</v>
@@ -2046,7 +2040,7 @@
         <v>10031</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43">
         <v>10000</v>
@@ -2182,19 +2176,19 @@
         <v>22000</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C55" s="8">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="D55" s="8">
         <v>1</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F55" s="8">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G55" s="8">
         <v>1</v>
@@ -2212,32 +2206,26 @@
         <v>22100</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C56" s="8">
-        <v>1000</v>
+        <v>9400</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="F56" s="8">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="G56" s="8">
         <v>1</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I56" s="8">
-        <v>1000</v>
-      </c>
-      <c r="J56" s="8">
-        <v>1</v>
-      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
       <c r="K56" s="1"/>
       <c r="N56" s="1"/>
       <c r="Q56" s="1"/>
@@ -2248,32 +2236,26 @@
         <v>22200</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" s="8">
-        <v>2500</v>
+        <v>9400</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="F57" s="8">
-        <v>6500</v>
+        <v>600</v>
       </c>
       <c r="G57" s="8">
         <v>1</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I57" s="8">
-        <v>1000</v>
-      </c>
-      <c r="J57" s="8">
-        <v>1</v>
-      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
       <c r="K57" s="1"/>
       <c r="N57" s="1"/>
       <c r="Q57" s="1"/>
@@ -2284,7 +2266,7 @@
         <v>30000</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58">
         <v>10000</v>
@@ -2302,7 +2284,7 @@
         <v>30001</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59">
         <v>5000</v>
@@ -2320,7 +2302,7 @@
         <v>30002</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <v>500</v>
@@ -2338,7 +2320,7 @@
         <v>30003</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61">
         <v>5000</v>
@@ -2356,7 +2338,7 @@
         <v>30004</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <v>500</v>
@@ -2374,7 +2356,7 @@
         <v>30005</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63">
         <v>5000</v>
@@ -2392,7 +2374,7 @@
         <v>30006</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64">
         <v>500</v>
@@ -2410,7 +2392,7 @@
         <v>30007</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65">
         <v>5000</v>
@@ -2428,7 +2410,7 @@
         <v>30008</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66">
         <v>500</v>
@@ -2446,7 +2428,7 @@
         <v>30009</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67">
         <v>5000</v>
@@ -2464,7 +2446,7 @@
         <v>30010</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <v>500</v>
@@ -2482,7 +2464,7 @@
         <v>30011</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69">
         <v>5000</v>
@@ -2500,7 +2482,7 @@
         <v>30012</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70">
         <v>500</v>
@@ -2518,7 +2500,7 @@
         <v>31001</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71">
         <v>10000</v>
@@ -2536,7 +2518,7 @@
         <v>31002</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72">
         <v>300</v>
@@ -2554,7 +2536,7 @@
         <v>31003</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73">
         <v>300</v>
@@ -2572,7 +2554,7 @@
         <v>31004</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74">
         <v>300</v>
@@ -2590,7 +2572,7 @@
         <v>31005</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75">
         <v>100</v>
@@ -2608,7 +2590,7 @@
         <v>31006</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C76">
         <v>100</v>
@@ -2626,7 +2608,7 @@
         <v>31007</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77">
         <v>300</v>
@@ -2644,7 +2626,7 @@
         <v>31008</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C78">
         <v>300</v>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9B0FB0-2BC8-4952-B293-89AEDA76328B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BD3A3B-ACC1-4CA4-8D51-0F875573383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -303,10 +303,6 @@
   </si>
   <si>
     <t>104,105</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10006</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -653,8 +649,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V78" totalsRowShown="0">
-  <autoFilter ref="A1:V78" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V79" totalsRowShown="0">
+  <autoFilter ref="A1:V79" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -980,13 +976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1346,7 +1342,7 @@
         <v>1003</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="5">
         <v>3000</v>
@@ -1355,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="5">
         <v>2160</v>
@@ -1364,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I10" s="5">
         <v>4240</v>
@@ -1373,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L10" s="5">
         <v>240</v>
@@ -1382,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O10" s="5">
         <v>180</v>
@@ -1391,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R10" s="5">
         <v>180</v>
@@ -1406,7 +1402,7 @@
         <v>1004</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="5">
         <v>5000</v>
@@ -1415,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="5">
         <v>950</v>
@@ -1424,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="5">
         <v>1500</v>
@@ -1433,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" s="5">
         <v>2400</v>
@@ -1442,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O11" s="5">
         <v>150</v>
@@ -1459,7 +1455,7 @@
         <v>1005</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="5">
         <v>5000</v>
@@ -1468,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5">
         <v>4400</v>
@@ -1477,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I12" s="5">
         <v>400</v>
@@ -1486,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12" s="5">
         <v>200</v>
@@ -1503,7 +1499,7 @@
         <v>10001</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>10000</v>
@@ -1752,7 +1748,7 @@
         <v>10015</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>10000</v>
@@ -1770,7 +1766,7 @@
         <v>10016</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>10000</v>
@@ -1788,7 +1784,7 @@
         <v>10017</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <v>10000</v>
@@ -1806,7 +1802,7 @@
         <v>10018</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <v>10000</v>
@@ -1824,7 +1820,7 @@
         <v>10019</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31">
         <v>10000</v>
@@ -1842,7 +1838,7 @@
         <v>10020</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <v>10000</v>
@@ -1860,7 +1856,7 @@
         <v>10021</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>10000</v>
@@ -1878,7 +1874,7 @@
         <v>10022</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>10000</v>
@@ -1896,7 +1892,7 @@
         <v>10023</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35">
         <v>10000</v>
@@ -1914,7 +1910,7 @@
         <v>10024</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36">
         <v>10000</v>
@@ -1932,7 +1928,7 @@
         <v>10025</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>10000</v>
@@ -1950,7 +1946,7 @@
         <v>10026</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <v>10000</v>
@@ -1968,7 +1964,7 @@
         <v>10027</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>10000</v>
@@ -1986,7 +1982,7 @@
         <v>10028</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>10000</v>
@@ -2004,7 +2000,7 @@
         <v>10029</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41">
         <v>10000</v>
@@ -2022,7 +2018,7 @@
         <v>10030</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42">
         <v>10000</v>
@@ -2040,7 +2036,7 @@
         <v>10031</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43">
         <v>10000</v>
@@ -2157,13 +2153,22 @@
       <c r="A54">
         <v>20000</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54">
-        <v>10000</v>
-      </c>
-      <c r="D54">
+      <c r="B54" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="8">
+        <v>9400</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="8">
+        <v>600</v>
+      </c>
+      <c r="G54" s="8">
         <v>1</v>
       </c>
       <c r="K54" s="1"/>
@@ -2172,11 +2177,11 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A55" s="8">
-        <v>22000</v>
+      <c r="A55">
+        <v>20001</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="8">
         <v>9400</v>
@@ -2185,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" s="8">
         <v>600</v>
@@ -2193,9 +2198,6 @@
       <c r="G55" s="8">
         <v>1</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
       <c r="K55" s="1"/>
       <c r="N55" s="1"/>
       <c r="Q55" s="1"/>
@@ -2203,10 +2205,10 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56" s="8">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="8">
         <v>9400</v>
@@ -2215,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F56" s="8">
         <v>600</v>
@@ -2233,10 +2235,10 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57" s="8">
-        <v>22200</v>
+        <v>22100</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="8">
         <v>9400</v>
@@ -2245,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F57" s="8">
         <v>600</v>
@@ -2262,18 +2264,30 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A58">
-        <v>30000</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58">
-        <v>10000</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
+      <c r="A58" s="8">
+        <v>22200</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="8">
+        <v>9400</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="8">
+        <v>600</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
       <c r="K58" s="1"/>
       <c r="N58" s="1"/>
       <c r="Q58" s="1"/>
@@ -2281,13 +2295,13 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>30001</v>
+        <v>30000</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2299,13 +2313,13 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2317,13 +2331,13 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2335,13 +2349,13 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2353,13 +2367,13 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>30005</v>
+        <v>30004</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2371,13 +2385,13 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>30006</v>
+        <v>30005</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2389,13 +2403,13 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>30007</v>
+        <v>30006</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2407,13 +2421,13 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>30008</v>
+        <v>30007</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2425,13 +2439,13 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>30009</v>
+        <v>30008</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2443,13 +2457,13 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>30010</v>
+        <v>30009</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2461,13 +2475,13 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>30011</v>
+        <v>30010</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2479,13 +2493,13 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>30012</v>
+        <v>30011</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2497,13 +2511,13 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>31001</v>
+        <v>30012</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C71">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2515,13 +2529,13 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>31002</v>
+        <v>31001</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2533,10 +2547,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>31003</v>
+        <v>31002</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73">
         <v>300</v>
@@ -2551,10 +2565,10 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>31004</v>
+        <v>31003</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C74">
         <v>300</v>
@@ -2569,13 +2583,13 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>31005</v>
+        <v>31004</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C75">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2587,10 +2601,10 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>31006</v>
+        <v>31005</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C76">
         <v>100</v>
@@ -2605,13 +2619,13 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>31007</v>
+        <v>31006</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C77">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2623,10 +2637,10 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>31008</v>
+        <v>31007</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C78">
         <v>300</v>
@@ -2638,6 +2652,24 @@
       <c r="N78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>31008</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79">
+        <v>300</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="T79" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/RandomBonusPond.xlsx
+++ b/Config/Excel/RandomBonusPond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BD3A3B-ACC1-4CA4-8D51-0F875573383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D5CD92-733E-44F8-B15A-680F6C6B8715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81BCD4A1-3088-4B38-B37D-B02828D5C4E0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -434,9 +434,6 @@
     <t>3004</t>
   </si>
   <si>
-    <t>3005</t>
-  </si>
-  <si>
     <t>83028,83029,83030</t>
   </si>
   <si>
@@ -480,16 +477,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>3007</t>
-  </si>
-  <si>
     <t>22001,22002,22003,22004,22005,22006,22007,22008,22009,22010,22011,22012,22013,22014,22015,22016,22017,22018,22019,22020,22021,22022,22023,22024,22025,22026,22027,22028,22029,22030,22031,22032,22033,22034,22035,22036,22037,22038,22039,22040,22041,22042,22043,22044,22045,22046,22047</t>
   </si>
   <si>
     <t>22048,22049,22050,22051,22052,22053</t>
+  </si>
+  <si>
+    <t>300131</t>
+  </si>
+  <si>
+    <t>300141</t>
+  </si>
+  <si>
+    <t>300151</t>
+  </si>
+  <si>
+    <t>300161</t>
+  </si>
+  <si>
+    <t>300171</t>
+  </si>
+  <si>
+    <t>300181</t>
+  </si>
+  <si>
+    <t>300191</t>
+  </si>
+  <si>
+    <t>300201</t>
+  </si>
+  <si>
+    <t>300211</t>
+  </si>
+  <si>
+    <t>300221</t>
+  </si>
+  <si>
+    <t>300231</t>
+  </si>
+  <si>
+    <t>300241</t>
   </si>
 </sst>
 </file>
@@ -649,8 +676,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V79" totalsRowShown="0">
-  <autoFilter ref="A1:V79" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}" name="テーブル1" displayName="テーブル1" ref="A1:V88" totalsRowShown="0">
+  <autoFilter ref="A1:V88" xr:uid="{AF5252CE-948E-47B9-A63F-958448330352}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{EBAF11DC-C839-4E6F-9C87-E880B89F63A1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2C5750CD-7AF6-4691-9C9D-940D3AE1DC93}" name="BonusList01" dataDxfId="5"/>
@@ -976,13 +1003,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672F8677-1D03-4DD7-81E9-5BDC0FEBB39B}">
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1342,7 +1369,7 @@
         <v>1003</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="5">
         <v>3000</v>
@@ -1351,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="5">
         <v>2160</v>
@@ -1360,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I10" s="5">
         <v>4240</v>
@@ -1369,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L10" s="5">
         <v>240</v>
@@ -1378,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O10" s="5">
         <v>180</v>
@@ -1387,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R10" s="5">
         <v>180</v>
@@ -1402,7 +1429,7 @@
         <v>1004</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="5">
         <v>5000</v>
@@ -1411,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="5">
         <v>950</v>
@@ -1420,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="5">
         <v>1500</v>
@@ -1438,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O11" s="5">
         <v>150</v>
@@ -1455,7 +1482,7 @@
         <v>1005</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5">
         <v>5000</v>
@@ -1464,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="5">
         <v>4400</v>
@@ -1473,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I12" s="5">
         <v>400</v>
@@ -1482,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L12" s="5">
         <v>200</v>
@@ -2036,7 +2063,7 @@
         <v>10031</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43">
         <v>10000</v>
@@ -2154,7 +2181,7 @@
         <v>20000</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C54" s="8">
         <v>9400</v>
@@ -2163,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F54" s="8">
         <v>600</v>
@@ -2181,7 +2208,7 @@
         <v>20001</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C55" s="8">
         <v>9400</v>
@@ -2190,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F55" s="8">
         <v>600</v>
@@ -2208,7 +2235,7 @@
         <v>22000</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C56" s="8">
         <v>9400</v>
@@ -2217,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" s="8">
         <v>600</v>
@@ -2238,7 +2265,7 @@
         <v>22100</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C57" s="8">
         <v>9400</v>
@@ -2247,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F57" s="8">
         <v>600</v>
@@ -2268,7 +2295,7 @@
         <v>22200</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C58" s="8">
         <v>9400</v>
@@ -2277,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F58" s="8">
         <v>600</v>
@@ -2529,13 +2556,13 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>31001</v>
+        <v>30013</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C72">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2547,13 +2574,13 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>31002</v>
+        <v>30014</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C73">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2565,13 +2592,13 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>31003</v>
+        <v>30015</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C74">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2583,13 +2610,13 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>31004</v>
+        <v>30016</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C75">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2601,13 +2628,13 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>31005</v>
+        <v>30017</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C76">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2619,13 +2646,13 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>31006</v>
+        <v>30018</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C77">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2637,13 +2664,13 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>31007</v>
+        <v>30019</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C78">
-        <v>300</v>
+        <v>7000</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2655,13 +2682,13 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>31008</v>
+        <v>30020</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C79">
-        <v>300</v>
+        <v>7000</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2670,6 +2697,168 @@
       <c r="N79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="T79" s="1"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>30021</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80">
+        <v>7000</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>30022</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81">
+        <v>7000</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>30023</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82">
+        <v>7000</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>30024</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83">
+        <v>7000</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>31001</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>10000</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>31002</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>31003</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>31004</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>5000</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="T87" s="1"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>31005</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88">
+        <v>5000</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="T88" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
